--- a/backend/src/data/alimentos.xlsx
+++ b/backend/src/data/alimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veiga\Documents\github\nuTryo2\backend\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CAF1D4-ADA7-471A-9343-70A9D8A19667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCE456D-3F0D-47C4-BAD0-73FE8EA27F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="50910" windowHeight="21840" xr2:uid="{8CB391E7-25E2-4521-9667-D2D5173B4CF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="604">
   <si>
     <t>carboidrato</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Arroz, integral, cozido</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Arroz, integral, cru</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>Biscoito, doce, recheado com chocolate</t>
-  </si>
-  <si>
-    <t>Tr</t>
   </si>
   <si>
     <t>Biscoito, doce, recheado com morango</t>
@@ -2839,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE92E8E-2E93-4D60-836A-5BD3BEE456BA}">
   <dimension ref="A1:I617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="F600" sqref="F600"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,22 +2849,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -2881,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="15">
         <v>96.154708695652204</v>
@@ -2892,8 +2886,8 @@
       <c r="E2" s="16">
         <v>8.3966666666666665</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>2</v>
+      <c r="F2" s="37">
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <v>6.0308695652173965</v>
@@ -2906,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="11">
         <v>48.322213043478243</v>
@@ -2917,8 +2911,8 @@
       <c r="E3" s="13">
         <v>0.12333333333333334</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>2</v>
+      <c r="F3" s="37">
+        <v>0</v>
       </c>
       <c r="G3" s="8">
         <v>12.334637681159411</v>
@@ -2931,7 +2925,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C4" s="21">
         <v>30.591799194335923</v>
@@ -2942,8 +2936,8 @@
       <c r="E4" s="18">
         <v>0.11333333333333333</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>2</v>
+      <c r="F4" s="26">
+        <v>0</v>
       </c>
       <c r="G4" s="22">
         <v>7.7986666666666622</v>
@@ -2955,7 +2949,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C5" s="21">
         <v>111.6155034511884</v>
@@ -2979,7 +2973,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C6" s="7">
         <v>59.11303324858347</v>
@@ -3003,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" s="21">
         <v>129.64352590286731</v>
@@ -3027,7 +3021,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C8" s="21">
         <v>91.103548395554228</v>
@@ -3051,7 +3045,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="7">
         <v>62.424098408540061</v>
@@ -3062,8 +3056,8 @@
       <c r="E9" s="6">
         <v>0.70333333333333325</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>2</v>
+      <c r="F9" s="37">
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>14.926999999999998</v>
@@ -3075,7 +3069,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="7">
         <v>48.043742500000008</v>
@@ -3086,8 +3080,8 @@
       <c r="E10" s="8">
         <v>0.72933333333333328</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>2</v>
+      <c r="F10" s="12">
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <v>10.760916666666668</v>
@@ -3099,7 +3093,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="11">
         <v>38.599294202898562</v>
@@ -3110,8 +3104,8 @@
       <c r="E11" s="9">
         <v>0.53666666666666674</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>2</v>
+      <c r="F11" s="12">
+        <v>0</v>
       </c>
       <c r="G11" s="8">
         <v>8.3602898550724678</v>
@@ -3123,7 +3117,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="11">
         <v>13.605673913043486</v>
@@ -3131,11 +3125,11 @@
       <c r="D12" s="9">
         <v>0.60869565217391308</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>2</v>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <v>3.3013043478260893</v>
@@ -3147,7 +3141,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="11">
         <v>12.364436231884042</v>
@@ -3158,8 +3152,8 @@
       <c r="E13" s="13">
         <v>0.06</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>2</v>
+      <c r="F13" s="12">
+        <v>0</v>
       </c>
       <c r="G13" s="8">
         <v>2.6665217391304306</v>
@@ -3171,7 +3165,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="21">
         <v>29.003822031756222</v>
@@ -3182,8 +3176,8 @@
       <c r="E14" s="22">
         <v>0.79900000000000004</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>2</v>
+      <c r="F14" s="26">
+        <v>0</v>
       </c>
       <c r="G14" s="22">
         <v>5.9819166666666614</v>
@@ -3195,7 +3189,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7">
         <v>24.466267949700352</v>
@@ -3206,8 +3200,8 @@
       <c r="E15" s="10">
         <v>0.11599999999999999</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>2</v>
+      <c r="F15" s="12">
+        <v>0</v>
       </c>
       <c r="G15" s="8">
         <v>6.1228333333333387</v>
@@ -3219,7 +3213,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="7">
         <v>15.038520000000023</v>
@@ -3230,8 +3224,8 @@
       <c r="E16" s="10">
         <v>0.19899999999999998</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>2</v>
+      <c r="F16" s="12">
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>2.977000000000007</v>
@@ -3243,7 +3237,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="11">
         <v>19.279126086956484</v>
@@ -3254,8 +3248,8 @@
       <c r="E17" s="13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>2</v>
+      <c r="F17" s="12">
+        <v>0</v>
       </c>
       <c r="G17" s="8">
         <v>4.292028985507236</v>
@@ -3267,7 +3261,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C18" s="21">
         <v>24.429602187653359</v>
@@ -3278,8 +3272,8 @@
       <c r="E18" s="22">
         <v>0.82133333333333336</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>2</v>
+      <c r="F18" s="21">
+        <v>0</v>
       </c>
       <c r="G18" s="22">
         <v>4.1869166666666597</v>
@@ -3291,7 +3285,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="7">
         <v>30.810702228816336</v>
@@ -3302,8 +3296,8 @@
       <c r="E19" s="10">
         <v>0.13900000000000001</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>2</v>
+      <c r="F19" s="12">
+        <v>0</v>
       </c>
       <c r="G19" s="8">
         <v>7.8674199999999992</v>
@@ -3315,7 +3309,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C20" s="7">
         <v>110.29759000000001</v>
@@ -3326,8 +3320,8 @@
       <c r="E20" s="6">
         <v>3.6603333333333334</v>
       </c>
-      <c r="F20" s="37" t="s">
-        <v>2</v>
+      <c r="F20" s="37">
+        <v>0</v>
       </c>
       <c r="G20" s="8">
         <v>21.45516666666667</v>
@@ -3339,7 +3333,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" s="21">
         <v>58.045368872821328</v>
@@ -3350,8 +3344,8 @@
       <c r="E21" s="18">
         <v>3.9443333333333332</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>2</v>
+      <c r="F21" s="26">
+        <v>0</v>
       </c>
       <c r="G21" s="22">
         <v>6.2084166666666665</v>
@@ -3363,7 +3357,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C22" s="7">
         <v>289.21166666666664</v>
@@ -3387,7 +3381,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="7">
         <v>20.942342499999942</v>
@@ -3398,8 +3392,8 @@
       <c r="E23" s="10">
         <v>0.106</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>2</v>
+      <c r="F23" s="12">
+        <v>0</v>
       </c>
       <c r="G23" s="8">
         <v>4.630916666666657</v>
@@ -3411,7 +3405,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C24" s="7">
         <v>33.462270000000032</v>
@@ -3422,8 +3416,8 @@
       <c r="E24" s="10">
         <v>0.20766666666666667</v>
       </c>
-      <c r="F24" s="37" t="s">
-        <v>2</v>
+      <c r="F24" s="37">
+        <v>0</v>
       </c>
       <c r="G24" s="8">
         <v>7.9664166666666718</v>
@@ -3435,7 +3429,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C25" s="7">
         <v>21.936799999999977</v>
@@ -3443,11 +3437,11 @@
       <c r="D25" s="6">
         <v>0.59166666666666679</v>
       </c>
-      <c r="E25" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>2</v>
+      <c r="E25" s="44">
+        <v>0</v>
+      </c>
+      <c r="F25" s="37">
+        <v>0</v>
       </c>
       <c r="G25" s="8">
         <v>5.5413333333333306</v>
@@ -3459,7 +3453,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C26" s="11">
         <v>401.02</v>
@@ -3470,8 +3464,8 @@
       <c r="E26" s="40">
         <v>2.1666666666666665</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>11</v>
+      <c r="F26" s="11">
+        <v>0</v>
       </c>
       <c r="G26" s="8">
         <v>91.176666666666662</v>
@@ -3483,7 +3477,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C27" s="11">
         <v>386.84572399999996</v>
@@ -3491,11 +3485,11 @@
       <c r="D27" s="9">
         <v>0.32</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>2</v>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0</v>
       </c>
       <c r="G27" s="8">
         <v>99.61</v>
@@ -3507,7 +3501,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C28" s="21">
         <v>368.55482252438867</v>
@@ -3518,8 +3512,8 @@
       <c r="E28" s="18">
         <v>9.2000000000000012E-2</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>2</v>
+      <c r="F28" s="21">
+        <v>0</v>
       </c>
       <c r="G28" s="22">
         <v>94.45</v>
@@ -3531,7 +3525,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C29" s="11">
         <v>386.57482399999992</v>
@@ -3539,11 +3533,11 @@
       <c r="D29" s="9">
         <v>0.32</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>2</v>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
       </c>
       <c r="G29" s="8">
         <v>99.54</v>
@@ -3555,7 +3549,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="11">
         <v>16.578801449275325</v>
@@ -3566,8 +3560,8 @@
       <c r="E30" s="13">
         <v>0.23666666666666666</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>2</v>
+      <c r="F30" s="12">
+        <v>0</v>
       </c>
       <c r="G30" s="8">
         <v>2.2515942028985423</v>
@@ -3579,7 +3573,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="7">
         <v>19.09145664497062</v>
@@ -3590,8 +3584,8 @@
       <c r="E31" s="10">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>2</v>
+      <c r="F31" s="12">
+        <v>0</v>
       </c>
       <c r="G31" s="8">
         <v>4.2723333333333446</v>
@@ -3603,7 +3597,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="7">
         <v>8.7949032368660518</v>
@@ -3614,8 +3608,8 @@
       <c r="E32" s="10">
         <v>0.129</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>2</v>
+      <c r="F32" s="12">
+        <v>0</v>
       </c>
       <c r="G32" s="8">
         <v>1.7453333333333474</v>
@@ -3627,7 +3621,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C33" s="11">
         <v>10.68085652173921</v>
@@ -3638,8 +3632,8 @@
       <c r="E33" s="13">
         <v>0.16</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>2</v>
+      <c r="F33" s="12">
+        <v>0</v>
       </c>
       <c r="G33" s="8">
         <v>1.6955072463768253</v>
@@ -3651,7 +3645,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="11">
         <v>13.820901449275343</v>
@@ -3662,8 +3656,8 @@
       <c r="E34" s="13">
         <v>0.12333333333333334</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>2</v>
+      <c r="F34" s="12">
+        <v>0</v>
       </c>
       <c r="G34" s="8">
         <v>2.4282608695652179</v>
@@ -3675,7 +3669,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C35" s="21">
         <v>12.716997363467993</v>
@@ -3686,8 +3680,8 @@
       <c r="E35" s="22">
         <v>0.19166666666666665</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>2</v>
+      <c r="F35" s="21">
+        <v>0</v>
       </c>
       <c r="G35" s="22">
         <v>2.4934166666666613</v>
@@ -3699,7 +3693,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="7">
         <v>29.183613081057864</v>
@@ -3710,8 +3704,8 @@
       <c r="E36" s="10">
         <v>0.47633333333333333</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>2</v>
+      <c r="F36" s="12">
+        <v>0</v>
       </c>
       <c r="G36" s="8">
         <v>5.2409999999999988</v>
@@ -3723,7 +3717,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="11">
         <v>113.12987826086957</v>
@@ -3734,8 +3728,8 @@
       <c r="E37" s="13">
         <v>0.22</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>2</v>
+      <c r="F37" s="12">
+        <v>0</v>
       </c>
       <c r="G37" s="8">
         <v>23.905797101449277</v>
@@ -3747,7 +3741,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="21">
         <v>31.507919353246699</v>
@@ -3758,8 +3752,8 @@
       <c r="E38" s="20">
         <v>0.13966666666666669</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>2</v>
+      <c r="F38" s="21">
+        <v>0</v>
       </c>
       <c r="G38" s="22">
         <v>6.8781666666666688</v>
@@ -3771,7 +3765,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="11">
         <v>18.034428985507237</v>
@@ -3782,8 +3776,8 @@
       <c r="E39" s="13">
         <v>0.21666666666666667</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>2</v>
+      <c r="F39" s="12">
+        <v>0</v>
       </c>
       <c r="G39" s="8">
         <v>3.3352173913043464</v>
@@ -3795,7 +3789,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="7">
         <v>65.08191082886853</v>
@@ -3806,8 +3800,8 @@
       <c r="E40" s="6">
         <v>4.8470000000000004</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>2</v>
+      <c r="F40" s="12">
+        <v>0</v>
       </c>
       <c r="G40" s="8">
         <v>5.701499999999994</v>
@@ -3819,7 +3813,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C41" s="7">
         <v>182.84662000000003</v>
@@ -3827,11 +3821,11 @@
       <c r="D41" s="8">
         <v>0.40833333333333338</v>
       </c>
-      <c r="E41" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>2</v>
+      <c r="E41" s="44">
+        <v>0</v>
+      </c>
+      <c r="F41" s="37">
+        <v>0</v>
       </c>
       <c r="G41" s="8">
         <v>46.89266666666667</v>
@@ -3843,7 +3837,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C42" s="11">
         <v>52.54248260869565</v>
@@ -3851,11 +3845,11 @@
       <c r="D42" s="9">
         <v>0.77173913043478259</v>
       </c>
-      <c r="E42" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>2</v>
+      <c r="E42" s="44">
+        <v>0</v>
+      </c>
+      <c r="F42" s="37">
+        <v>0</v>
       </c>
       <c r="G42" s="8">
         <v>13.851594202898553</v>
@@ -3867,7 +3861,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C43" s="7">
         <v>177.35918531537055</v>
@@ -3878,8 +3872,8 @@
       <c r="E43" s="10">
         <v>0.28033333333333332</v>
       </c>
-      <c r="F43" s="37" t="s">
-        <v>2</v>
+      <c r="F43" s="37">
+        <v>0</v>
       </c>
       <c r="G43" s="8">
         <v>47.658000000000001</v>
@@ -3891,7 +3885,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C44" s="7">
         <v>580.74695455607048</v>
@@ -3902,8 +3896,8 @@
       <c r="E44" s="6">
         <v>47.324333333333335</v>
       </c>
-      <c r="F44" s="37" t="s">
-        <v>2</v>
+      <c r="F44" s="37">
+        <v>0</v>
       </c>
       <c r="G44" s="8">
         <v>29.547240000000002</v>
@@ -3915,7 +3909,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C45" s="7">
         <v>544.05265579943341</v>
@@ -3926,8 +3920,8 @@
       <c r="E45" s="10">
         <v>43.85</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>2</v>
+      <c r="F45" s="14">
+        <v>0</v>
       </c>
       <c r="G45" s="8">
         <v>20.313533333333336</v>
@@ -3939,7 +3933,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C46" s="21">
         <v>605.78109291701924</v>
@@ -3950,8 +3944,8 @@
       <c r="E46" s="18">
         <v>53.963333333333338</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>2</v>
+      <c r="F46" s="21">
+        <v>0</v>
       </c>
       <c r="G46" s="22">
         <v>18.702486509641012</v>
@@ -3963,7 +3957,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C47" s="21">
         <v>128.85725581200919</v>
@@ -3987,7 +3981,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C48" s="7">
         <v>153.77199999999999</v>
@@ -4022,8 +4016,8 @@
       <c r="E49" s="6">
         <v>1.0003333333333333</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>2</v>
+      <c r="F49" s="14">
+        <v>0</v>
       </c>
       <c r="G49" s="8">
         <v>25.809750000000001</v>
@@ -4035,7 +4029,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2">
         <v>359.67800203260879</v>
@@ -4046,8 +4040,8 @@
       <c r="E50" s="6">
         <v>1.8648333333333333</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>2</v>
+      <c r="F50" s="2">
+        <v>0</v>
       </c>
       <c r="G50" s="8">
         <v>77.45071413043479</v>
@@ -4059,7 +4053,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2">
         <v>128.25848566666664</v>
@@ -4070,8 +4064,8 @@
       <c r="E51" s="32">
         <v>0.22699999999999998</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>2</v>
+      <c r="F51" s="2">
+        <v>0</v>
       </c>
       <c r="G51" s="8">
         <v>28.059849999999994</v>
@@ -4083,7 +4077,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" s="7">
         <v>357.78927311594202</v>
@@ -4094,8 +4088,8 @@
       <c r="E52" s="8">
         <v>0.33500000000000002</v>
       </c>
-      <c r="F52" s="14" t="s">
-        <v>2</v>
+      <c r="F52" s="14">
+        <v>0</v>
       </c>
       <c r="G52" s="8">
         <v>78.759543478260866</v>
@@ -4107,7 +4101,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="7">
         <v>130.11964833333332</v>
@@ -4118,8 +4112,8 @@
       <c r="E53" s="10">
         <v>0.36166666666666664</v>
       </c>
-      <c r="F53" s="14" t="s">
-        <v>2</v>
+      <c r="F53" s="14">
+        <v>0</v>
       </c>
       <c r="G53" s="8">
         <v>28.192583333333332</v>
@@ -4131,7 +4125,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" s="7">
         <v>358.11676145652171</v>
@@ -4142,8 +4136,8 @@
       <c r="E54" s="9">
         <v>0.27550000000000002</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>2</v>
+      <c r="F54" s="11">
+        <v>0</v>
       </c>
       <c r="G54" s="8">
         <v>78.88145036231883</v>
@@ -4155,7 +4149,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C55" s="7">
         <v>96.971587447921436</v>
@@ -4166,8 +4160,8 @@
       <c r="E55" s="10">
         <v>0.30033333333333334</v>
       </c>
-      <c r="F55" s="37" t="s">
-        <v>2</v>
+      <c r="F55" s="37">
+        <v>0</v>
       </c>
       <c r="G55" s="8">
         <v>25.332166666666662</v>
@@ -4179,7 +4173,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C56" s="7">
         <v>165.91056057890256</v>
@@ -4203,7 +4197,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C57" s="15">
         <v>117.50099999999998</v>
@@ -4227,7 +4221,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="11">
         <v>393.82268944927546</v>
@@ -4238,8 +4232,8 @@
       <c r="E58" s="9">
         <v>8.4966666666666661</v>
       </c>
-      <c r="F58" s="11" t="s">
-        <v>2</v>
+      <c r="F58" s="11">
+        <v>0</v>
       </c>
       <c r="G58" s="8">
         <v>66.635640579710156</v>
@@ -4251,22 +4245,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C59" s="7">
         <v>884</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>2</v>
+      <c r="D59" s="8">
+        <v>0</v>
       </c>
       <c r="E59" s="8">
         <v>100</v>
       </c>
-      <c r="F59" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>2</v>
+      <c r="F59" s="14">
+        <v>0</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4275,22 +4269,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C60" s="7">
         <v>884</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>2</v>
+      <c r="D60" s="8">
+        <v>0</v>
       </c>
       <c r="E60" s="8">
         <v>100</v>
       </c>
-      <c r="F60" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>2</v>
+      <c r="F60" s="14">
+        <v>0</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4299,7 +4293,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C61" s="7">
         <v>194.1538470209837</v>
@@ -4310,8 +4304,8 @@
       <c r="E61" s="10">
         <v>20.344999999999999</v>
       </c>
-      <c r="F61" s="37" t="s">
-        <v>2</v>
+      <c r="F61" s="37">
+        <v>0</v>
       </c>
       <c r="G61" s="8">
         <v>5.5445000000000038</v>
@@ -4323,7 +4317,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C62" s="7">
         <v>136.93643000000003</v>
@@ -4334,8 +4328,8 @@
       <c r="E62" s="10">
         <v>14.215666666666666</v>
       </c>
-      <c r="F62" s="37" t="s">
-        <v>2</v>
+      <c r="F62" s="37">
+        <v>0</v>
       </c>
       <c r="G62" s="8">
         <v>4.1017500000000009</v>
@@ -4347,7 +4341,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C63" s="15">
         <v>135.89296666666664</v>
@@ -4371,7 +4365,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C64" s="7">
         <v>139.66070105353995</v>
@@ -4395,7 +4389,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C65" s="7">
         <v>135.68133333333333</v>
@@ -4419,7 +4413,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C66" s="11">
         <v>128.02445217391306</v>
@@ -4430,8 +4424,8 @@
       <c r="E66" s="13">
         <v>0.24</v>
       </c>
-      <c r="F66" s="37" t="s">
-        <v>2</v>
+      <c r="F66" s="37">
+        <v>0</v>
       </c>
       <c r="G66" s="8">
         <v>33.665217391304353</v>
@@ -4443,7 +4437,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C67" s="21">
         <v>280.10519255063934</v>
@@ -4454,8 +4448,8 @@
       <c r="E67" s="18">
         <v>0.05</v>
       </c>
-      <c r="F67" s="26" t="s">
-        <v>2</v>
+      <c r="F67" s="26">
+        <v>0</v>
       </c>
       <c r="G67" s="22">
         <v>75.666583333333335</v>
@@ -4467,7 +4461,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C68" s="11">
         <v>105.08265000000002</v>
@@ -4478,8 +4472,8 @@
       <c r="E68" s="10">
         <v>0.14166666666666669</v>
       </c>
-      <c r="F68" s="37" t="s">
-        <v>2</v>
+      <c r="F68" s="37">
+        <v>0</v>
       </c>
       <c r="G68" s="8">
         <v>27.804416666666668</v>
@@ -4491,7 +4485,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C69" s="11">
         <v>86.80533043478259</v>
@@ -4502,8 +4496,8 @@
       <c r="E69" s="13">
         <v>0.06</v>
       </c>
-      <c r="F69" s="37" t="s">
-        <v>2</v>
+      <c r="F69" s="37">
+        <v>0</v>
       </c>
       <c r="G69" s="8">
         <v>22.336376811594199</v>
@@ -4515,7 +4509,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C70" s="11">
         <v>91.52884782608696</v>
@@ -4526,8 +4520,8 @@
       <c r="E70" s="13">
         <v>0.11666666666666665</v>
       </c>
-      <c r="F70" s="37" t="s">
-        <v>2</v>
+      <c r="F70" s="37">
+        <v>0</v>
       </c>
       <c r="G70" s="8">
         <v>23.848115942028986</v>
@@ -4539,7 +4533,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C71" s="11">
         <v>112.36604782608694</v>
@@ -4550,8 +4544,8 @@
       <c r="E71" s="13">
         <v>0.21</v>
       </c>
-      <c r="F71" s="37" t="s">
-        <v>2</v>
+      <c r="F71" s="37">
+        <v>0</v>
       </c>
       <c r="G71" s="8">
         <v>29.341449275362308</v>
@@ -4563,7 +4557,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C72" s="7">
         <v>77.909527925074116</v>
@@ -4574,8 +4568,8 @@
       <c r="E72" s="10">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F72" s="37" t="s">
-        <v>2</v>
+      <c r="F72" s="37">
+        <v>0</v>
       </c>
       <c r="G72" s="8">
         <v>20.312583333333333</v>
@@ -4587,7 +4581,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C73" s="11">
         <v>98.249702173913064</v>
@@ -4598,8 +4592,8 @@
       <c r="E73" s="13">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F73" s="37" t="s">
-        <v>2</v>
+      <c r="F73" s="37">
+        <v>0</v>
       </c>
       <c r="G73" s="8">
         <v>25.956884057971017</v>
@@ -4611,7 +4605,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C74" s="21">
         <v>164.9752340474129</v>
@@ -4635,7 +4629,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C75" s="7">
         <v>80.119762500000036</v>
@@ -4646,8 +4640,8 @@
       <c r="E75" s="10">
         <v>0.16633333333333333</v>
       </c>
-      <c r="F75" s="12" t="s">
-        <v>2</v>
+      <c r="F75" s="12">
+        <v>0</v>
       </c>
       <c r="G75" s="8">
         <v>18.947583333333334</v>
@@ -4659,7 +4653,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C76" s="11">
         <v>100.98492318840582</v>
@@ -4670,8 +4664,8 @@
       <c r="E76" s="13">
         <v>0.17</v>
       </c>
-      <c r="F76" s="12" t="s">
-        <v>2</v>
+      <c r="F76" s="12">
+        <v>0</v>
       </c>
       <c r="G76" s="8">
         <v>23.982898550724638</v>
@@ -4683,7 +4677,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C77" s="7">
         <v>76.759610503435169</v>
@@ -4694,8 +4688,8 @@
       <c r="E77" s="10">
         <v>8.7666666666666671E-2</v>
       </c>
-      <c r="F77" s="12" t="s">
-        <v>2</v>
+      <c r="F77" s="12">
+        <v>0</v>
       </c>
       <c r="G77" s="8">
         <v>18.422333333333338</v>
@@ -4707,7 +4701,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C78" s="11">
         <v>118.24137536231882</v>
@@ -4718,8 +4712,8 @@
       <c r="E78" s="13">
         <v>0.13333333333333333</v>
       </c>
-      <c r="F78" s="12" t="s">
-        <v>2</v>
+      <c r="F78" s="12">
+        <v>0</v>
       </c>
       <c r="G78" s="8">
         <v>28.196086956521739</v>
@@ -4731,7 +4725,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C79" s="7">
         <v>542.73467338418959</v>
@@ -4742,8 +4736,8 @@
       <c r="E79" s="6">
         <v>36.615000000000002</v>
       </c>
-      <c r="F79" s="14" t="s">
-        <v>2</v>
+      <c r="F79" s="14">
+        <v>0</v>
       </c>
       <c r="G79" s="8">
         <v>51.222333333333331</v>
@@ -4755,7 +4749,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C80" s="7">
         <v>51.588476636270656</v>
@@ -4763,11 +4757,11 @@
       <c r="D80" s="6">
         <v>1.1645833333333333</v>
       </c>
-      <c r="E80" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>2</v>
+      <c r="E80" s="44">
+        <v>0</v>
+      </c>
+      <c r="F80" s="12">
+        <v>0</v>
       </c>
       <c r="G80" s="8">
         <v>11.94375</v>
@@ -4779,7 +4773,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" s="11">
         <v>64.370226086956507</v>
@@ -4787,11 +4781,11 @@
       <c r="D81" s="9">
         <v>1.7717391304347823</v>
       </c>
-      <c r="E81" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>2</v>
+      <c r="E81" s="13">
+        <v>0</v>
+      </c>
+      <c r="F81" s="12">
+        <v>0</v>
       </c>
       <c r="G81" s="8">
         <v>14.688260869565212</v>
@@ -4803,7 +4797,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C82" s="7">
         <v>267.15742250204084</v>
@@ -4814,8 +4808,8 @@
       <c r="E82" s="6">
         <v>13.108666666666666</v>
       </c>
-      <c r="F82" s="12" t="s">
-        <v>2</v>
+      <c r="F82" s="12">
+        <v>0</v>
       </c>
       <c r="G82" s="8">
         <v>35.640333333333331</v>
@@ -4827,7 +4821,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C83" s="7">
         <v>67.887936150630324</v>
@@ -4838,8 +4832,8 @@
       <c r="E83" s="6">
         <v>0.89633333333333332</v>
       </c>
-      <c r="F83" s="12" t="s">
-        <v>2</v>
+      <c r="F83" s="12">
+        <v>0</v>
       </c>
       <c r="G83" s="8">
         <v>14.093000000000005</v>
@@ -4851,7 +4845,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C84" s="7">
         <v>25.613333333333344</v>
@@ -4862,8 +4856,8 @@
       <c r="E84" s="10">
         <v>0</v>
       </c>
-      <c r="F84" s="14" t="s">
-        <v>2</v>
+      <c r="F84" s="14">
+        <v>0</v>
       </c>
       <c r="G84" s="8">
         <v>6.4033333333333395</v>
@@ -4875,7 +4869,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C85" s="15">
         <v>55.164833333333306</v>
@@ -4899,7 +4893,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C86" s="15">
         <v>55.164833333333306</v>
@@ -4923,7 +4917,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C87" s="7">
         <v>18.845285556813074</v>
@@ -4934,8 +4928,8 @@
       <c r="E87" s="10">
         <v>0.14833333333333332</v>
       </c>
-      <c r="F87" s="12" t="s">
-        <v>2</v>
+      <c r="F87" s="12">
+        <v>0</v>
       </c>
       <c r="G87" s="8">
         <v>4.4682499999999949</v>
@@ -4947,7 +4941,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C88" s="11">
         <v>19.62775362318839</v>
@@ -4958,8 +4952,8 @@
       <c r="E88" s="13">
         <v>0.1</v>
       </c>
-      <c r="F88" s="12" t="s">
-        <v>2</v>
+      <c r="F88" s="12">
+        <v>0</v>
       </c>
       <c r="G88" s="8">
         <v>4.4289855072463693</v>
@@ -4971,7 +4965,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C89" s="7">
         <v>32.154324331402762</v>
@@ -4982,8 +4976,8 @@
       <c r="E89" s="10">
         <v>9.2666666666666675E-2</v>
       </c>
-      <c r="F89" s="12" t="s">
-        <v>2</v>
+      <c r="F89" s="12">
+        <v>0</v>
       </c>
       <c r="G89" s="8">
         <v>7.2349166666666633</v>
@@ -4995,7 +4989,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C90" s="11">
         <v>48.828508695652147</v>
@@ -5006,8 +5000,8 @@
       <c r="E90" s="13">
         <v>0.09</v>
       </c>
-      <c r="F90" s="12" t="s">
-        <v>2</v>
+      <c r="F90" s="12">
+        <v>0</v>
       </c>
       <c r="G90" s="8">
         <v>11.111014492753624</v>
@@ -5019,7 +5013,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C91" s="21">
         <v>291.22950924495859</v>
@@ -5043,7 +5037,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92" s="15">
         <v>442.81939014492752</v>
@@ -5054,8 +5048,8 @@
       <c r="E92" s="16">
         <v>11.966666666666669</v>
       </c>
-      <c r="F92" s="15" t="s">
-        <v>2</v>
+      <c r="F92" s="15">
+        <v>0</v>
       </c>
       <c r="G92" s="8">
         <v>75.234144927536221</v>
@@ -5067,7 +5061,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" s="15">
         <v>471.82477971014498</v>
@@ -5078,8 +5072,8 @@
       <c r="E93" s="16">
         <v>19.583333333333332</v>
       </c>
-      <c r="F93" s="33" t="s">
-        <v>11</v>
+      <c r="F93" s="33">
+        <v>0</v>
       </c>
       <c r="G93" s="8">
         <v>70.549449275362321</v>
@@ -5091,7 +5085,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C94" s="11">
         <v>471.17473623188408</v>
@@ -5102,8 +5096,8 @@
       <c r="E94" s="9">
         <v>19.573333333333334</v>
       </c>
-      <c r="F94" s="11" t="s">
-        <v>11</v>
+      <c r="F94" s="11">
+        <v>0</v>
       </c>
       <c r="G94" s="8">
         <v>71.013507246376818</v>
@@ -5115,7 +5109,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C95" s="15">
         <v>502.45685797101441</v>
@@ -5126,8 +5120,8 @@
       <c r="E95" s="16">
         <v>24.673333333333332</v>
       </c>
-      <c r="F95" s="33" t="s">
-        <v>11</v>
+      <c r="F95" s="33">
+        <v>0</v>
       </c>
       <c r="G95" s="8">
         <v>67.535478260869553</v>
@@ -5139,7 +5133,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C96" s="15">
         <v>513.44618260869561</v>
@@ -5163,7 +5157,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C97" s="7">
         <v>437.54900000000004</v>
@@ -5187,7 +5181,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C98" s="15">
         <v>431.73228115942027</v>
@@ -5198,8 +5192,8 @@
       <c r="E98" s="16">
         <v>14.436666666666667</v>
       </c>
-      <c r="F98" s="15" t="s">
-        <v>2</v>
+      <c r="F98" s="15">
+        <v>0</v>
       </c>
       <c r="G98" s="8">
         <v>68.73153623188405</v>
@@ -5211,7 +5205,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C99" s="7">
         <v>273.51433333333335</v>
@@ -5235,7 +5229,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C100" s="15">
         <v>418.63333333333333</v>
@@ -5246,8 +5240,8 @@
       <c r="E100" s="16">
         <v>6.126666666666666</v>
       </c>
-      <c r="F100" s="15" t="s">
-        <v>11</v>
+      <c r="F100" s="15">
+        <v>0</v>
       </c>
       <c r="G100" s="8">
         <v>84.713913043478257</v>
@@ -5259,7 +5253,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C101" s="7">
         <v>323.85166666666663</v>
@@ -5283,7 +5277,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C102" s="7">
         <v>410.01366666666667</v>
@@ -5307,7 +5301,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C103" s="7">
         <v>333.4376666666667</v>
@@ -5331,7 +5325,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C104" s="7">
         <v>311.387</v>
@@ -5355,7 +5349,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C105" s="7">
         <v>24.636163111368791</v>
@@ -5366,8 +5360,8 @@
       <c r="E105" s="10">
         <v>0.45900000000000002</v>
       </c>
-      <c r="F105" s="12" t="s">
-        <v>2</v>
+      <c r="F105" s="12">
+        <v>0</v>
       </c>
       <c r="G105" s="8">
         <v>4.3666666666666627</v>
@@ -5379,7 +5373,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C106" s="11">
         <v>25.495131884057955</v>
@@ -5390,8 +5384,8 @@
       <c r="E106" s="13">
         <v>0.26666666666666666</v>
       </c>
-      <c r="F106" s="12" t="s">
-        <v>2</v>
+      <c r="F106" s="12">
+        <v>0</v>
       </c>
       <c r="G106" s="8">
         <v>4.0250724637681152</v>
@@ -5403,7 +5397,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C107" s="21">
         <v>208.33274372597532</v>
@@ -5427,7 +5421,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C108" s="7">
         <v>116.01448068765795</v>
@@ -5451,7 +5445,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C109" s="7">
         <v>83.333025019566222</v>
@@ -5475,7 +5469,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C110" s="11">
         <v>74.291480000000035</v>
@@ -5486,8 +5480,8 @@
       <c r="E110" s="10">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F110" s="37" t="s">
-        <v>2</v>
+      <c r="F110" s="37">
+        <v>0</v>
       </c>
       <c r="G110" s="8">
         <v>19.411166666666677</v>
@@ -5499,7 +5493,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C111" s="7">
         <v>9.070868599613517</v>
@@ -5510,8 +5504,8 @@
       <c r="E111" s="10">
         <v>6.9333333333333344E-2</v>
       </c>
-      <c r="F111" s="14" t="s">
-        <v>2</v>
+      <c r="F111" s="14">
+        <v>0</v>
       </c>
       <c r="G111" s="8">
         <v>1.478666666666667</v>
@@ -5523,7 +5517,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C112" s="15">
         <v>418.61866666666663</v>
@@ -5534,8 +5528,8 @@
       <c r="E112" s="16">
         <v>11.946666666666667</v>
       </c>
-      <c r="F112" s="15" t="s">
-        <v>2</v>
+      <c r="F112" s="15">
+        <v>0</v>
       </c>
       <c r="G112" s="8">
         <v>65.753333333333316</v>
@@ -5547,7 +5541,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C113" s="21">
         <v>26.332269311050553</v>
@@ -5558,8 +5552,8 @@
       <c r="E113" s="18">
         <v>0.16766666666666666</v>
       </c>
-      <c r="F113" s="26" t="s">
-        <v>2</v>
+      <c r="F113" s="26">
+        <v>0</v>
       </c>
       <c r="G113" s="22">
         <v>6.3744166666666606</v>
@@ -5571,7 +5565,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C114" s="7">
         <v>45.58096877372266</v>
@@ -5579,11 +5573,11 @@
       <c r="D114" s="6">
         <v>1.2791666666666666</v>
       </c>
-      <c r="E114" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="37" t="s">
-        <v>2</v>
+      <c r="E114" s="44">
+        <v>0</v>
+      </c>
+      <c r="F114" s="37">
+        <v>0</v>
       </c>
       <c r="G114" s="8">
         <v>11.434166666666664</v>
@@ -5595,7 +5589,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C115" s="11">
         <v>43.065068521739114</v>
@@ -5606,8 +5600,8 @@
       <c r="E115" s="13">
         <v>0.33</v>
       </c>
-      <c r="F115" s="37" t="s">
-        <v>2</v>
+      <c r="F115" s="37">
+        <v>0</v>
       </c>
       <c r="G115" s="8">
         <v>10.288988840579705</v>
@@ -5619,7 +5613,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C116" s="7">
         <v>36.568679999999965</v>
@@ -5630,8 +5624,8 @@
       <c r="E116" s="10">
         <v>0.154</v>
       </c>
-      <c r="F116" s="37" t="s">
-        <v>2</v>
+      <c r="F116" s="37">
+        <v>0</v>
       </c>
       <c r="G116" s="8">
         <v>9.3507499999999943</v>
@@ -5643,7 +5637,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C117" s="7">
         <v>45.10862666666668</v>
@@ -5654,8 +5648,8 @@
       <c r="E117" s="10">
         <v>0.2</v>
       </c>
-      <c r="F117" s="37" t="s">
-        <v>2</v>
+      <c r="F117" s="37">
+        <v>0</v>
       </c>
       <c r="G117" s="8">
         <v>10.733833333333331</v>
@@ -5667,7 +5661,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C118" s="15">
         <v>240.62333333333333</v>
@@ -5678,8 +5672,8 @@
       <c r="E118" s="16">
         <v>16.57</v>
       </c>
-      <c r="F118" s="15" t="s">
-        <v>11</v>
+      <c r="F118" s="15">
+        <v>0</v>
       </c>
       <c r="G118" s="8">
         <v>15.053333333333342</v>
@@ -5691,7 +5685,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C119" s="7">
         <v>251.44566666666665</v>
@@ -5715,7 +5709,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C120" s="21">
         <v>100.78304300403595</v>
@@ -5739,7 +5733,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C121" s="7">
         <v>90.013680096308377</v>
@@ -5763,7 +5757,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C122" s="7">
         <v>47.183436705430353</v>
@@ -5787,7 +5781,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C123" s="21">
         <v>231.24615385087333</v>
@@ -5811,15 +5805,15 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C124" s="14">
         <v>215.66159999999999</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
-      <c r="F124" s="14" t="s">
-        <v>2</v>
+      <c r="F124" s="14">
+        <v>0</v>
       </c>
       <c r="G124" s="8"/>
     </row>
@@ -5829,19 +5823,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C125" s="7">
         <v>65.34359826898573</v>
       </c>
-      <c r="D125" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F125" s="14" t="s">
-        <v>2</v>
+      <c r="D125" s="8">
+        <v>0</v>
+      </c>
+      <c r="E125" s="8">
+        <v>0</v>
+      </c>
+      <c r="F125" s="14">
+        <v>0</v>
       </c>
       <c r="G125" s="8">
         <v>18.151000000000003</v>
@@ -5853,7 +5847,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C126" s="7">
         <v>357.60258999999996</v>
@@ -5864,8 +5858,8 @@
       <c r="E126" s="6">
         <v>0.97100000000000009</v>
       </c>
-      <c r="F126" s="14" t="s">
-        <v>2</v>
+      <c r="F126" s="14">
+        <v>0</v>
       </c>
       <c r="G126" s="8">
         <v>78.060999999999993</v>
@@ -5877,7 +5871,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C127" s="21">
         <v>112.45677722046528</v>
@@ -5901,7 +5895,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C128" s="7">
         <v>417.40666666666669</v>
@@ -5925,7 +5919,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C129" s="7">
         <v>71.350018111646165</v>
@@ -5936,8 +5930,8 @@
       <c r="E129" s="10">
         <v>6.9333333333333344E-2</v>
       </c>
-      <c r="F129" s="37" t="s">
-        <v>2</v>
+      <c r="F129" s="37">
+        <v>0</v>
       </c>
       <c r="G129" s="8">
         <v>19.325749999999996</v>
@@ -5949,7 +5943,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C130" s="7">
         <v>77.584913333333361</v>
@@ -5960,8 +5954,8 @@
       <c r="E130" s="10">
         <v>0.11233333333333334</v>
       </c>
-      <c r="F130" s="12" t="s">
-        <v>2</v>
+      <c r="F130" s="12">
+        <v>0</v>
       </c>
       <c r="G130" s="8">
         <v>18.852499999999999</v>
@@ -5973,7 +5967,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C131" s="11">
         <v>95.633134782608707</v>
@@ -5984,8 +5978,8 @@
       <c r="E131" s="13">
         <v>0.13666666666666669</v>
       </c>
-      <c r="F131" s="12" t="s">
-        <v>2</v>
+      <c r="F131" s="12">
+        <v>0</v>
       </c>
       <c r="G131" s="8">
         <v>22.954057971014496</v>
@@ -5997,7 +5991,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C132" s="7">
         <v>45.740888793428724</v>
@@ -6008,8 +6002,8 @@
       <c r="E132" s="10">
         <v>0.17699999999999996</v>
       </c>
-      <c r="F132" s="37" t="s">
-        <v>2</v>
+      <c r="F132" s="37">
+        <v>0</v>
       </c>
       <c r="G132" s="8">
         <v>11.481499999999997</v>
@@ -6021,7 +6015,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C133" s="7">
         <v>82.721501507838582</v>
@@ -6045,7 +6039,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C134" s="15">
         <v>212.42039999999997</v>
@@ -6069,7 +6063,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C135" s="15">
         <v>136.56233333333333</v>
@@ -6093,7 +6087,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C136" s="15">
         <v>214.61056666666664</v>
@@ -6117,7 +6111,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C137" s="15">
         <v>144.02943333333332</v>
@@ -6141,7 +6135,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C138" s="15">
         <v>189.2566666666666</v>
@@ -6165,7 +6159,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C139" s="7">
         <v>271.81299999999999</v>
@@ -6189,7 +6183,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C140" s="15">
         <v>133.02286666666666</v>
@@ -6213,7 +6207,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C141" s="15">
         <v>137.30316666666667</v>
@@ -6237,7 +6231,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C142" s="15">
         <v>216.90896666666669</v>
@@ -6261,7 +6255,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C143" s="15">
         <v>311.70266666666669</v>
@@ -6285,7 +6279,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C144" s="15">
         <v>131.06246666666664</v>
@@ -6309,7 +6303,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C145" s="15">
         <v>239.44363333333328</v>
@@ -6333,7 +6327,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C146" s="7">
         <v>262.78014226218068</v>
@@ -6357,7 +6351,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C147" s="7">
         <v>248.86101810745396</v>
@@ -6381,7 +6375,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C148" s="15">
         <v>202.43739999999997</v>
@@ -6405,7 +6399,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C149" s="15">
         <v>274.91426666666666</v>
@@ -6429,7 +6423,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C150" s="21">
         <v>351.5926591989994</v>
@@ -6453,7 +6447,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C151" s="15">
         <v>205.85669999999999</v>
@@ -6477,7 +6471,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C152" s="15">
         <v>278.05356666666665</v>
@@ -6501,7 +6495,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C153" s="15">
         <v>156.61583333333331</v>
@@ -6525,7 +6519,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C154" s="15">
         <v>193.69156666666663</v>
@@ -6549,7 +6543,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C155" s="15">
         <v>373.03886666666665</v>
@@ -6573,7 +6567,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C156" s="15">
         <v>357.72246666666666</v>
@@ -6597,7 +6591,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C157" s="15">
         <v>216.616066666667</v>
@@ -6621,7 +6615,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C158" s="15">
         <v>147.96633333333335</v>
@@ -6645,7 +6639,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C159" s="15">
         <v>218.67509999999999</v>
@@ -6669,7 +6663,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C160" s="15">
         <v>169.06596666666667</v>
@@ -6693,7 +6687,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C161" s="15">
         <v>330.1002908333333</v>
@@ -6717,7 +6711,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C162" s="15">
         <v>221.39750000000001</v>
@@ -6741,7 +6735,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C163" s="15">
         <v>141.04586666666665</v>
@@ -6765,7 +6759,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C164" s="15">
         <v>225.0264</v>
@@ -6790,7 +6784,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C165" s="15">
         <v>142.86426666666665</v>
@@ -6815,7 +6809,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C166" s="15">
         <v>219.70259999999996</v>
@@ -6840,7 +6834,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C167" s="15">
         <v>195.5753666666667</v>
@@ -6865,7 +6859,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C168" s="15">
         <v>141.46009999999998</v>
@@ -6890,7 +6884,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C169" s="15">
         <v>338.44573333333335</v>
@@ -6915,7 +6909,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C170" s="15">
         <v>220.72376666666662</v>
@@ -6940,7 +6934,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C171" s="15">
         <v>222.46856666666667</v>
@@ -6965,7 +6959,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C172" s="15">
         <v>134.86456666666663</v>
@@ -6990,7 +6984,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C173" s="15">
         <v>314.90159999999997</v>
@@ -7015,7 +7009,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C174" s="15">
         <v>215.24976666666663</v>
@@ -7040,7 +7034,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C175" s="15">
         <v>152.76586666666665</v>
@@ -7065,7 +7059,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C176" s="15">
         <v>153.0896758333333</v>
@@ -7090,7 +7084,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C177" s="15">
         <v>162.87123333333332</v>
@@ -7115,7 +7109,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C178" s="15">
         <v>241.36396666666667</v>
@@ -7140,7 +7134,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C179" s="15">
         <v>193.80033333333333</v>
@@ -7165,7 +7159,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C180" s="15">
         <v>141.58099999999999</v>
@@ -7190,7 +7184,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C181" s="15">
         <v>158.7099</v>
@@ -7215,7 +7209,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C182" s="15">
         <v>193.65239999999997</v>
@@ -7240,7 +7234,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C183" s="15">
         <v>140.94149999999999</v>
@@ -7265,7 +7259,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C184" s="15">
         <v>133.46889999999996</v>
@@ -7290,7 +7284,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C185" s="15">
         <v>219.25926666666663</v>
@@ -7315,7 +7309,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C186" s="15">
         <v>338.47313333333329</v>
@@ -7340,7 +7334,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C187" s="15">
         <v>259.2756333333333</v>
@@ -7365,7 +7359,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C188" s="15">
         <v>212.87943333333331</v>
@@ -7390,7 +7384,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C189" s="15">
         <v>288.7670916666666</v>
@@ -7415,7 +7409,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C190" s="15">
         <v>133.52236666666667</v>
@@ -7440,7 +7434,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C191" s="15">
         <v>238.4681333333333</v>
@@ -7465,7 +7459,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C192" s="7">
         <v>312.79903369144597</v>
@@ -7490,7 +7484,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C193" s="7">
         <v>312.74842790365221</v>
@@ -7515,7 +7509,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C194" s="7">
         <v>34.031629717349972</v>
@@ -7526,8 +7520,8 @@
       <c r="E194" s="6">
         <v>0.58499999999999996</v>
       </c>
-      <c r="F194" s="12" t="s">
-        <v>2</v>
+      <c r="F194" s="12">
+        <v>0</v>
       </c>
       <c r="G194" s="8">
         <v>5.9739999999999931</v>
@@ -7540,7 +7534,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C195" s="7">
         <v>570.167626501619</v>
@@ -7551,8 +7545,8 @@
       <c r="E195" s="10">
         <v>46.279666666666664</v>
       </c>
-      <c r="F195" s="37" t="s">
-        <v>2</v>
+      <c r="F195" s="37">
+        <v>0</v>
       </c>
       <c r="G195" s="8">
         <v>29.13496600055695</v>
@@ -7565,7 +7559,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C196" s="7">
         <v>642.96307168106932</v>
@@ -7576,8 +7570,8 @@
       <c r="E196" s="10">
         <v>63.459000000000003</v>
       </c>
-      <c r="F196" s="37" t="s">
-        <v>2</v>
+      <c r="F196" s="37">
+        <v>0</v>
       </c>
       <c r="G196" s="8">
         <v>15.078659898440039</v>
@@ -7590,7 +7584,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C197" s="7">
         <v>23.888412257373297</v>
@@ -7601,8 +7595,8 @@
       <c r="E197" s="10">
         <v>0.28233333333333333</v>
       </c>
-      <c r="F197" s="12" t="s">
-        <v>2</v>
+      <c r="F197" s="12">
+        <v>0</v>
       </c>
       <c r="G197" s="8">
         <v>4.7522499999999903</v>
@@ -7615,7 +7609,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C198" s="21">
         <v>63.449269148826616</v>
@@ -7626,8 +7620,8 @@
       <c r="E198" s="18">
         <v>4.8056666666666663</v>
       </c>
-      <c r="F198" s="26" t="s">
-        <v>2</v>
+      <c r="F198" s="26">
+        <v>0</v>
       </c>
       <c r="G198" s="22">
         <v>4.8093333333333383</v>
@@ -7640,7 +7634,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C199" s="11">
         <v>39.420046376811584</v>
@@ -7651,8 +7645,8 @@
       <c r="E199" s="13">
         <v>0.08</v>
       </c>
-      <c r="F199" s="12" t="s">
-        <v>2</v>
+      <c r="F199" s="12">
+        <v>0</v>
       </c>
       <c r="G199" s="8">
         <v>8.8531884057970984</v>
@@ -7665,7 +7659,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C200" s="11">
         <v>19.515885507246438</v>
@@ -7676,8 +7670,8 @@
       <c r="E200" s="13">
         <v>0.35</v>
       </c>
-      <c r="F200" s="12" t="s">
-        <v>2</v>
+      <c r="F200" s="12">
+        <v>0</v>
       </c>
       <c r="G200" s="8">
         <v>3.3707246376811648</v>
@@ -7690,7 +7684,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C201" s="7">
         <v>29.861777710159579</v>
@@ -7701,8 +7695,8 @@
       <c r="E201" s="10">
         <v>0.21833333333333335</v>
       </c>
-      <c r="F201" s="12" t="s">
-        <v>2</v>
+      <c r="F201" s="12">
+        <v>0</v>
       </c>
       <c r="G201" s="8">
         <v>6.6867499999999893</v>
@@ -7715,7 +7709,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C202" s="11">
         <v>34.135388405797137</v>
@@ -7726,8 +7720,8 @@
       <c r="E202" s="13">
         <v>0.17333333333333334</v>
       </c>
-      <c r="F202" s="12" t="s">
-        <v>2</v>
+      <c r="F202" s="12">
+        <v>0</v>
       </c>
       <c r="G202" s="8">
         <v>7.66</v>
@@ -7740,7 +7734,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C203" s="7">
         <v>369.59975000000003</v>
@@ -7751,8 +7745,8 @@
       <c r="E203" s="6">
         <v>1.6033333333333335</v>
       </c>
-      <c r="F203" s="14" t="s">
-        <v>2</v>
+      <c r="F203" s="14">
+        <v>0</v>
       </c>
       <c r="G203" s="8">
         <v>80.834999999999994</v>
@@ -7765,7 +7759,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C204" s="7">
         <v>363.33831666666663</v>
@@ -7776,8 +7770,8 @@
       <c r="E204" s="6">
         <v>1.1833333333333333</v>
       </c>
-      <c r="F204" s="14" t="s">
-        <v>2</v>
+      <c r="F204" s="14">
+        <v>0</v>
       </c>
       <c r="G204" s="8">
         <v>80.448333333333338</v>
@@ -7790,7 +7784,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C205" s="15">
         <v>394.42752173913044</v>
@@ -7801,8 +7795,8 @@
       <c r="E205" s="16">
         <v>1.0933333333333335</v>
       </c>
-      <c r="F205" s="36" t="s">
-        <v>2</v>
+      <c r="F205" s="36">
+        <v>0</v>
       </c>
       <c r="G205" s="8">
         <v>87.265507246376814</v>
@@ -7815,7 +7809,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C206" s="7">
         <v>381.13333333333333</v>
@@ -7826,8 +7820,8 @@
       <c r="E206" s="6">
         <v>2.12</v>
       </c>
-      <c r="F206" s="14" t="s">
-        <v>2</v>
+      <c r="F206" s="14">
+        <v>0</v>
       </c>
       <c r="G206" s="8">
         <v>81.617500000000007</v>
@@ -7840,7 +7834,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C207" s="11">
         <v>365.354163768116</v>
@@ -7851,8 +7845,8 @@
       <c r="E207" s="9">
         <v>0.95666666666666667</v>
       </c>
-      <c r="F207" s="11" t="s">
-        <v>2</v>
+      <c r="F207" s="11">
+        <v>0</v>
       </c>
       <c r="G207" s="8">
         <v>83.824202898550723</v>
@@ -7865,7 +7859,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C208" s="11">
         <v>376.55525362318843</v>
@@ -7876,8 +7870,8 @@
       <c r="E208" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F208" s="11" t="s">
-        <v>2</v>
+      <c r="F208" s="11">
+        <v>0</v>
       </c>
       <c r="G208" s="8">
         <v>88.840579710144922</v>
@@ -7890,7 +7884,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C209" s="7">
         <v>40.720188550628663</v>
@@ -7898,11 +7892,11 @@
       <c r="D209" s="6">
         <v>0.5625</v>
       </c>
-      <c r="E209" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F209" s="14" t="s">
-        <v>2</v>
+      <c r="E209" s="44">
+        <v>0</v>
+      </c>
+      <c r="F209" s="14">
+        <v>0</v>
       </c>
       <c r="G209" s="8">
         <v>3.3174999999999999</v>
@@ -7915,7 +7909,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="41" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C210" s="7">
         <v>1.3970599738756386</v>
@@ -7926,8 +7920,8 @@
       <c r="E210" s="10">
         <v>0</v>
       </c>
-      <c r="F210" s="14" t="s">
-        <v>2</v>
+      <c r="F210" s="14">
+        <v>0</v>
       </c>
       <c r="G210" s="8">
         <v>0.39133333333332132</v>
@@ -7940,7 +7934,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C211" s="7">
         <v>2.7307499511241429</v>
@@ -7951,8 +7945,8 @@
       <c r="E211" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F211" s="14" t="s">
-        <v>2</v>
+      <c r="F211" s="14">
+        <v>0</v>
       </c>
       <c r="G211" s="8">
         <v>0.64299999999999313</v>
@@ -7965,7 +7959,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C212" s="7">
         <v>2.2479099579652102</v>
@@ -7976,8 +7970,8 @@
       <c r="E212" s="10">
         <v>0</v>
       </c>
-      <c r="F212" s="14" t="s">
-        <v>2</v>
+      <c r="F212" s="14">
+        <v>0</v>
       </c>
       <c r="G212" s="8">
         <v>0.62966666666666526</v>
@@ -7990,7 +7984,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C213" s="7">
         <v>314.95600026666671</v>
@@ -8001,8 +7995,8 @@
       <c r="E213" s="10">
         <v>27.270666666666667</v>
       </c>
-      <c r="F213" s="34" t="s">
-        <v>11</v>
+      <c r="F213" s="34">
+        <v>0</v>
       </c>
       <c r="G213" s="8">
         <v>16.855000066666669</v>
@@ -8015,7 +8009,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C214" s="21">
         <v>78.23472922221822</v>
@@ -8040,7 +8034,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C215" s="11">
         <v>13.837120289855097</v>
@@ -8051,8 +8045,8 @@
       <c r="E215" s="13">
         <v>0.14333333333333334</v>
       </c>
-      <c r="F215" s="12" t="s">
-        <v>2</v>
+      <c r="F215" s="12">
+        <v>0</v>
       </c>
       <c r="G215" s="8">
         <v>2.8533333333333437</v>
@@ -8065,7 +8059,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C216" s="15">
         <v>539.5866666666667</v>
@@ -8090,7 +8084,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C217" s="7">
         <v>558.87633333333338</v>
@@ -8115,7 +8109,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C218" s="7">
         <v>556.82433333333336</v>
@@ -8140,7 +8134,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C219" s="7">
         <v>474.91776997327383</v>
@@ -8165,7 +8159,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C220" s="7">
         <v>18.539790531377019</v>
@@ -8173,11 +8167,11 @@
       <c r="D220" s="8">
         <v>0.41458333333333336</v>
       </c>
-      <c r="E220" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F220" s="12" t="s">
-        <v>2</v>
+      <c r="E220" s="44">
+        <v>0</v>
+      </c>
+      <c r="F220" s="12">
+        <v>0</v>
       </c>
       <c r="G220" s="8">
         <v>4.7934166666666655</v>
@@ -8190,7 +8184,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C221" s="11">
         <v>16.97891884057972</v>
@@ -8201,8 +8195,8 @@
       <c r="E221" s="13">
         <v>0.06</v>
       </c>
-      <c r="F221" s="12" t="s">
-        <v>2</v>
+      <c r="F221" s="12">
+        <v>0</v>
       </c>
       <c r="G221" s="8">
         <v>4.1373913043478341</v>
@@ -8215,7 +8209,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C222" s="7">
         <v>75.594110000000001</v>
@@ -8226,8 +8220,8 @@
       <c r="E222" s="10">
         <v>0.35966666666666663</v>
       </c>
-      <c r="F222" s="37" t="s">
-        <v>2</v>
+      <c r="F222" s="37">
+        <v>0</v>
       </c>
       <c r="G222" s="8">
         <v>18.857416666666666</v>
@@ -8240,7 +8234,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C223" s="7">
         <v>448.84545242331023</v>
@@ -8251,8 +8245,8 @@
       <c r="E223" s="10">
         <v>13.586999999999998</v>
       </c>
-      <c r="F223" s="14" t="s">
-        <v>2</v>
+      <c r="F223" s="14">
+        <v>0</v>
       </c>
       <c r="G223" s="8">
         <v>81.383166626294454</v>
@@ -8265,22 +8259,22 @@
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F224" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I224" s="6"/>
     </row>
@@ -8290,7 +8284,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C225" s="7">
         <v>21.50859424050649</v>
@@ -8301,8 +8295,8 @@
       <c r="E225" s="6">
         <v>0</v>
       </c>
-      <c r="F225" s="14" t="s">
-        <v>2</v>
+      <c r="F225" s="14">
+        <v>0</v>
       </c>
       <c r="G225" s="8">
         <v>5.2846666666666717</v>
@@ -8315,7 +8309,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C226" s="7">
         <v>406.48735310780989</v>
@@ -8326,8 +8320,8 @@
       <c r="E226" s="10">
         <v>41.976333333333336</v>
       </c>
-      <c r="F226" s="37" t="s">
-        <v>2</v>
+      <c r="F226" s="37">
+        <v>0</v>
       </c>
       <c r="G226" s="8">
         <v>10.401665876893027</v>
@@ -8340,7 +8334,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C227" s="11">
         <v>309.07074680447579</v>
@@ -8351,8 +8345,8 @@
       <c r="E227" s="9">
         <v>10.386666666666668</v>
       </c>
-      <c r="F227" s="12" t="s">
-        <v>2</v>
+      <c r="F227" s="12">
+        <v>0</v>
       </c>
       <c r="G227" s="8">
         <v>47.954999999999998</v>
@@ -8365,7 +8359,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C228" s="15">
         <v>128.15539999999999</v>
@@ -8390,7 +8384,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C229" s="21">
         <v>261.45243941056725</v>
@@ -8415,7 +8409,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="27" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C230" s="21">
         <v>238.69610486733916</v>
@@ -8440,7 +8434,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C231" s="15">
         <v>101.00903333333332</v>
@@ -8465,7 +8459,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C232" s="15">
         <v>94</v>
@@ -8490,7 +8484,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C233" s="7">
         <v>146.52814112536112</v>
@@ -8515,7 +8509,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C234" s="21">
         <v>100.07812455296516</v>
@@ -8540,7 +8534,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C235" s="11">
         <v>27.056697101449281</v>
@@ -8551,8 +8545,8 @@
       <c r="E235" s="9">
         <v>0.54666666666666675</v>
       </c>
-      <c r="F235" s="12" t="s">
-        <v>2</v>
+      <c r="F235" s="12">
+        <v>0</v>
       </c>
       <c r="G235" s="8">
         <v>4.3334782608695592</v>
@@ -8565,7 +8559,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C236" s="7">
         <v>90.344815426111225</v>
@@ -8576,8 +8570,8 @@
       <c r="E236" s="6">
         <v>6.5940000000000003</v>
       </c>
-      <c r="F236" s="12" t="s">
-        <v>2</v>
+      <c r="F236" s="12">
+        <v>0</v>
       </c>
       <c r="G236" s="8">
         <v>8.7076666666666682</v>
@@ -8590,7 +8584,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C237" s="7">
         <v>19.114140614728182</v>
@@ -8601,8 +8595,8 @@
       <c r="E237" s="10">
         <v>0.26933333333333337</v>
       </c>
-      <c r="F237" s="12" t="s">
-        <v>2</v>
+      <c r="F237" s="12">
+        <v>0</v>
       </c>
       <c r="G237" s="8">
         <v>3.8754166666666765</v>
@@ -8615,7 +8609,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C238" s="11">
         <v>22.563349275362292</v>
@@ -8626,8 +8620,8 @@
       <c r="E238" s="13">
         <v>0.21333333333333335</v>
       </c>
-      <c r="F238" s="12" t="s">
-        <v>2</v>
+      <c r="F238" s="12">
+        <v>0</v>
       </c>
       <c r="G238" s="8">
         <v>4.5175362318840619</v>
@@ -8640,7 +8634,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C239" s="7">
         <v>283.048</v>
@@ -8665,7 +8659,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C240" s="7">
         <v>386.00119033639794</v>
@@ -8676,8 +8670,8 @@
       <c r="E240" s="6">
         <v>1.2260000000000002</v>
       </c>
-      <c r="F240" s="14" t="s">
-        <v>2</v>
+      <c r="F240" s="14">
+        <v>0</v>
       </c>
       <c r="G240" s="8">
         <v>83.86938355859121</v>
@@ -8690,7 +8684,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="27" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C241" s="21">
         <v>221.48354127513312</v>
@@ -8715,7 +8709,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="27" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C242" s="21">
         <v>221.48354127513312</v>
@@ -8740,7 +8734,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C243" s="7">
         <v>333.03419267054403</v>
@@ -8751,8 +8745,8 @@
       <c r="E243" s="6">
         <v>1.6393333333333331</v>
       </c>
-      <c r="F243" s="14" t="s">
-        <v>2</v>
+      <c r="F243" s="14">
+        <v>0</v>
       </c>
       <c r="G243" s="8">
         <v>86.148499999999999</v>
@@ -8765,7 +8759,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="27" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C244" s="21">
         <v>245.77192529714108</v>
@@ -8790,7 +8784,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C245" s="21">
         <v>346.7420146474044</v>
@@ -8815,7 +8809,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C246" s="7">
         <v>49.422558774371929</v>
@@ -8826,8 +8820,8 @@
       <c r="E246" s="10">
         <v>0.95133333333333336</v>
       </c>
-      <c r="F246" s="37" t="s">
-        <v>2</v>
+      <c r="F246" s="37">
+        <v>0</v>
       </c>
       <c r="G246" s="8">
         <v>10.433583333333335</v>
@@ -8840,7 +8834,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C247" s="7">
         <v>48.796889999999991</v>
@@ -8851,8 +8845,8 @@
       <c r="E247" s="10">
         <v>0.59366666666666668</v>
       </c>
-      <c r="F247" s="37" t="s">
-        <v>2</v>
+      <c r="F247" s="37">
+        <v>0</v>
       </c>
       <c r="G247" s="8">
         <v>11.386916666666668</v>
@@ -8865,7 +8859,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C248" s="21">
         <v>78.433818313655848</v>
@@ -8890,7 +8884,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C249" s="7">
         <v>402.28657743531465</v>
@@ -8901,8 +8895,8 @@
       <c r="E249" s="6">
         <v>13.371333333333334</v>
       </c>
-      <c r="F249" s="14" t="s">
-        <v>2</v>
+      <c r="F249" s="14">
+        <v>0</v>
       </c>
       <c r="G249" s="8">
         <v>79.816416666666669</v>
@@ -8915,7 +8909,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C250" s="7">
         <v>113.45948166666666</v>
@@ -8926,8 +8920,8 @@
       <c r="E250" s="10">
         <v>0.67966666666666653</v>
       </c>
-      <c r="F250" s="34" t="s">
-        <v>2</v>
+      <c r="F250" s="34">
+        <v>0</v>
       </c>
       <c r="G250" s="8">
         <v>25.281416666666665</v>
@@ -8940,7 +8934,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C251" s="7">
         <v>142.12299999999999</v>
@@ -8965,7 +8959,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C252" s="21">
         <v>80.091615636507669</v>
@@ -8990,7 +8984,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C253" s="7">
         <v>124.50020083333331</v>
@@ -9015,7 +9009,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C254" s="7">
         <v>198.9360630496343</v>
@@ -9026,8 +9020,8 @@
       <c r="E254" s="10">
         <v>0.20666666666666667</v>
       </c>
-      <c r="F254" s="14" t="s">
-        <v>2</v>
+      <c r="F254" s="14">
+        <v>0</v>
       </c>
       <c r="G254" s="8">
         <v>54.613333333333337</v>
@@ -9040,7 +9034,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C255" s="21">
         <v>306.31013023105874</v>
@@ -9065,7 +9059,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C256" s="21">
         <v>131.2083147237698</v>
@@ -9090,7 +9084,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C257" s="7">
         <v>358.19166666666672</v>
@@ -9115,7 +9109,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C258" s="7">
         <v>377.47966666666667</v>
@@ -9140,7 +9134,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C259" s="15">
         <v>88.093581999778536</v>
@@ -9151,8 +9145,8 @@
       <c r="E259" s="10">
         <v>0.47100000000000003</v>
       </c>
-      <c r="F259" s="14" t="s">
-        <v>2</v>
+      <c r="F259" s="14">
+        <v>0</v>
       </c>
       <c r="G259" s="8">
         <v>14.227583333333328</v>
@@ -9165,7 +9159,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C260" s="15">
         <v>73.844704347826095</v>
@@ -9176,8 +9170,8 @@
       <c r="E260" s="16">
         <v>0.38</v>
       </c>
-      <c r="F260" s="14" t="s">
-        <v>2</v>
+      <c r="F260" s="14">
+        <v>0</v>
       </c>
       <c r="G260" s="8">
         <v>13.442173913043479</v>
@@ -9190,7 +9184,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C261" s="11">
         <v>16.095694202898525</v>
@@ -9201,8 +9195,8 @@
       <c r="E261" s="13">
         <v>0.24333333333333332</v>
       </c>
-      <c r="F261" s="12" t="s">
-        <v>2</v>
+      <c r="F261" s="12">
+        <v>0</v>
       </c>
       <c r="G261" s="8">
         <v>2.5736231884057963</v>
@@ -9215,7 +9209,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C262" s="7">
         <v>67.253651750663948</v>
@@ -9226,8 +9220,8 @@
       <c r="E262" s="6">
         <v>5.4346666666666676</v>
       </c>
-      <c r="F262" s="12" t="s">
-        <v>2</v>
+      <c r="F262" s="12">
+        <v>0</v>
       </c>
       <c r="G262" s="8">
         <v>4.2385833333333389</v>
@@ -9240,7 +9234,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C263" s="21">
         <v>173.14136431801319</v>
@@ -9265,7 +9259,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C264" s="21">
         <v>156.80610301323728</v>
@@ -9290,7 +9284,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C265" s="11">
         <v>363.05648018122349</v>
@@ -9301,8 +9295,8 @@
       <c r="E265" s="10">
         <v>0.3</v>
       </c>
-      <c r="F265" s="11" t="s">
-        <v>2</v>
+      <c r="F265" s="11">
+        <v>0</v>
       </c>
       <c r="G265" s="8">
         <v>85.504000040690116</v>
@@ -9315,7 +9309,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C266" s="7">
         <v>335.77766279932655</v>
@@ -9326,8 +9320,8 @@
       <c r="E266" s="17">
         <v>1.7533333333333332</v>
       </c>
-      <c r="F266" s="14" t="s">
-        <v>2</v>
+      <c r="F266" s="14">
+        <v>0</v>
       </c>
       <c r="G266" s="8">
         <v>73.298266830444334</v>
@@ -9340,7 +9334,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C267" s="15">
         <v>360.86969855072459</v>
@@ -9351,8 +9345,8 @@
       <c r="E267" s="16">
         <v>0.27666666666666667</v>
       </c>
-      <c r="F267" s="12" t="s">
-        <v>2</v>
+      <c r="F267" s="12">
+        <v>0</v>
       </c>
       <c r="G267" s="8">
         <v>87.898985507246366</v>
@@ -9365,7 +9359,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C268" s="7">
         <v>365.26897500000001</v>
@@ -9376,8 +9370,8 @@
       <c r="E268" s="10">
         <v>0.28666666666666668</v>
       </c>
-      <c r="F268" s="12" t="s">
-        <v>2</v>
+      <c r="F268" s="12">
+        <v>0</v>
       </c>
       <c r="G268" s="8">
         <v>89.194166666666661</v>
@@ -9390,7 +9384,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C269" s="21">
         <v>328.77140024483361</v>
@@ -9401,8 +9395,8 @@
       <c r="E269" s="18">
         <v>0.19800000000000004</v>
       </c>
-      <c r="F269" s="26" t="s">
-        <v>2</v>
+      <c r="F269" s="26">
+        <v>0</v>
       </c>
       <c r="G269" s="22">
         <v>79.17306661605835</v>
@@ -9415,7 +9409,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C270" s="7">
         <v>350.58693322738014</v>
@@ -9426,8 +9420,8 @@
       <c r="E270" s="17">
         <v>1.4666666666666666</v>
       </c>
-      <c r="F270" s="14" t="s">
-        <v>2</v>
+      <c r="F270" s="14">
+        <v>0</v>
       </c>
       <c r="G270" s="8">
         <v>79.079166666666652</v>
@@ -9440,7 +9434,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C271" s="21">
         <v>360.17977487993244</v>
@@ -9451,8 +9445,8 @@
       <c r="E271" s="18">
         <v>0.46900000000000003</v>
       </c>
-      <c r="F271" s="26" t="s">
-        <v>2</v>
+      <c r="F271" s="26">
+        <v>0</v>
       </c>
       <c r="G271" s="22">
         <v>87.285333333333341</v>
@@ -9465,7 +9459,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C272" s="7">
         <v>370.57809666666662</v>
@@ -9476,8 +9470,8 @@
       <c r="E272" s="6">
         <v>1.4633333333333332</v>
       </c>
-      <c r="F272" s="14" t="s">
-        <v>2</v>
+      <c r="F272" s="14">
+        <v>0</v>
       </c>
       <c r="G272" s="8">
         <v>75.785666666666657</v>
@@ -9490,7 +9484,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C273" s="11">
         <v>360.47297855072469</v>
@@ -9501,8 +9495,8 @@
       <c r="E273" s="9">
         <v>1.3666666666666669</v>
       </c>
-      <c r="F273" s="11" t="s">
-        <v>2</v>
+      <c r="F273" s="11">
+        <v>0</v>
       </c>
       <c r="G273" s="8">
         <v>75.09255072463769</v>
@@ -9515,7 +9509,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C274" s="15">
         <v>414.85051739130432</v>
@@ -9540,7 +9534,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C275" s="7">
         <v>330.85055833333337</v>
@@ -9551,8 +9545,8 @@
       <c r="E275" s="10">
         <v>0.28333333333333338</v>
       </c>
-      <c r="F275" s="12" t="s">
-        <v>2</v>
+      <c r="F275" s="12">
+        <v>0</v>
       </c>
       <c r="G275" s="8">
         <v>81.149166666666673</v>
@@ -9565,7 +9559,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C276" s="21">
         <v>151.56185683095453</v>
@@ -9590,7 +9584,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C277" s="7">
         <v>38.723236375411325</v>
@@ -9601,8 +9595,8 @@
       <c r="E277" s="10">
         <v>0.10266666666666667</v>
       </c>
-      <c r="F277" s="14" t="s">
-        <v>2</v>
+      <c r="F277" s="14">
+        <v>0</v>
       </c>
       <c r="G277" s="8">
         <v>7.7583333333333293</v>
@@ -9615,7 +9609,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C278" s="7">
         <v>76.424085666666684</v>
@@ -9626,8 +9620,8 @@
       <c r="E278" s="10">
         <v>0.54233333333333344</v>
       </c>
-      <c r="F278" s="14" t="s">
-        <v>2</v>
+      <c r="F278" s="14">
+        <v>0</v>
       </c>
       <c r="G278" s="8">
         <v>13.591033333333334</v>
@@ -9640,7 +9634,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C279" s="15">
         <v>329.02673623188412</v>
@@ -9651,8 +9645,8 @@
       <c r="E279" s="16">
         <v>1.2566666666666666</v>
       </c>
-      <c r="F279" s="14" t="s">
-        <v>2</v>
+      <c r="F279" s="14">
+        <v>0</v>
       </c>
       <c r="G279" s="8">
         <v>61.221449275362318</v>
@@ -9665,7 +9659,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="41" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C280" s="7">
         <v>78.008896666666672</v>
@@ -9676,8 +9670,8 @@
       <c r="E280" s="10">
         <v>0.64400000000000002</v>
       </c>
-      <c r="F280" s="14" t="s">
-        <v>2</v>
+      <c r="F280" s="14">
+        <v>0</v>
       </c>
       <c r="G280" s="8">
         <v>13.499583333333337</v>
@@ -9690,7 +9684,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C281" s="7">
         <v>339.16476666666665</v>
@@ -9701,8 +9695,8 @@
       <c r="E281" s="10">
         <v>2.3650000000000002</v>
       </c>
-      <c r="F281" s="14" t="s">
-        <v>2</v>
+      <c r="F281" s="14">
+        <v>0</v>
       </c>
       <c r="G281" s="8">
         <v>61.24</v>
@@ -9715,7 +9709,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="41" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C282" s="7">
         <v>92.739919999999998</v>
@@ -9726,8 +9720,8 @@
       <c r="E282" s="10">
         <v>0.51200000000000001</v>
       </c>
-      <c r="F282" s="14" t="s">
-        <v>2</v>
+      <c r="F282" s="14">
+        <v>0</v>
       </c>
       <c r="G282" s="8">
         <v>16.495250000000002</v>
@@ -9740,7 +9734,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C283" s="7">
         <v>327.90526666666665</v>
@@ -9751,8 +9745,8 @@
       <c r="E283" s="10">
         <v>0.94666666666666666</v>
       </c>
-      <c r="F283" s="14" t="s">
-        <v>2</v>
+      <c r="F283" s="14">
+        <v>0</v>
       </c>
       <c r="G283" s="8">
         <v>61.479166666666657</v>
@@ -9765,7 +9759,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C284" s="7">
         <v>77.027266666666677</v>
@@ -9776,8 +9770,8 @@
       <c r="E284" s="10">
         <v>0.53566666666666662</v>
       </c>
-      <c r="F284" s="14" t="s">
-        <v>2</v>
+      <c r="F284" s="14">
+        <v>0</v>
       </c>
       <c r="G284" s="8">
         <v>14.005166666666661</v>
@@ -9790,7 +9784,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C285" s="15">
         <v>323.56571159420292</v>
@@ -9801,8 +9795,8 @@
       <c r="E285" s="16">
         <v>1.24</v>
       </c>
-      <c r="F285" s="14" t="s">
-        <v>2</v>
+      <c r="F285" s="14">
+        <v>0</v>
       </c>
       <c r="G285" s="8">
         <v>58.752463768115952</v>
@@ -9815,7 +9809,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="41" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C286" s="7">
         <v>84.701852733492899</v>
@@ -9826,8 +9820,8 @@
       <c r="E286" s="10">
         <v>0.4</v>
       </c>
-      <c r="F286" s="14" t="s">
-        <v>2</v>
+      <c r="F286" s="14">
+        <v>0</v>
       </c>
       <c r="G286" s="8">
         <v>15.2675</v>
@@ -9840,7 +9834,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C287" s="7">
         <v>325.84441116273405</v>
@@ -9851,8 +9845,8 @@
       <c r="E287" s="10">
         <v>1.17</v>
       </c>
-      <c r="F287" s="14" t="s">
-        <v>2</v>
+      <c r="F287" s="14">
+        <v>0</v>
       </c>
       <c r="G287" s="8">
         <v>62.929166666666667</v>
@@ -9865,7 +9859,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C288" s="7">
         <v>67.866228771428268</v>
@@ -9876,8 +9870,8 @@
       <c r="E288" s="42">
         <v>0.47733333333333333</v>
       </c>
-      <c r="F288" s="14" t="s">
-        <v>2</v>
+      <c r="F288" s="14">
+        <v>0</v>
       </c>
       <c r="G288" s="8">
         <v>11.822749999999997</v>
@@ -9890,7 +9884,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="41" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C289" s="7">
         <v>336.9619111275673</v>
@@ -9901,8 +9895,8 @@
       <c r="E289" s="8">
         <v>1.33</v>
       </c>
-      <c r="F289" s="14" t="s">
-        <v>2</v>
+      <c r="F289" s="14">
+        <v>0</v>
       </c>
       <c r="G289" s="8">
         <v>62.223333333333329</v>
@@ -9915,7 +9909,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="41" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C290" s="7">
         <v>76.893382317900631</v>
@@ -9926,8 +9920,8 @@
       <c r="E290" s="10">
         <v>0.53833333333333344</v>
       </c>
-      <c r="F290" s="14" t="s">
-        <v>2</v>
+      <c r="F290" s="14">
+        <v>0</v>
       </c>
       <c r="G290" s="8">
         <v>12.908166666666659</v>
@@ -9940,7 +9934,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C291" s="7">
         <v>331.41497745672859</v>
@@ -9951,8 +9945,8 @@
       <c r="E291" s="10">
         <v>1.2366666666666666</v>
       </c>
-      <c r="F291" s="14" t="s">
-        <v>2</v>
+      <c r="F291" s="14">
+        <v>0</v>
       </c>
       <c r="G291" s="8">
         <v>59.986666666666657</v>
@@ -9965,7 +9959,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C292" s="7">
         <v>89.722066651121764</v>
@@ -9976,8 +9970,8 @@
       <c r="E292" s="10">
         <v>7.3333333333333334E-2</v>
       </c>
-      <c r="F292" s="14" t="s">
-        <v>2</v>
+      <c r="F292" s="14">
+        <v>0</v>
       </c>
       <c r="G292" s="8">
         <v>43.911333347956337</v>
@@ -9990,7 +9984,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C293" s="7">
         <v>89.794867030588847</v>
@@ -10001,8 +9995,8 @@
       <c r="E293" s="10">
         <v>1.5176666666666667</v>
       </c>
-      <c r="F293" s="14" t="s">
-        <v>2</v>
+      <c r="F293" s="14">
+        <v>0</v>
       </c>
       <c r="G293" s="8">
         <v>7.6986671883265227</v>
@@ -10015,7 +10009,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C294" s="11">
         <v>41.447126086956516</v>
@@ -10026,8 +10020,8 @@
       <c r="E294" s="13">
         <v>0.15666666666666665</v>
       </c>
-      <c r="F294" s="37" t="s">
-        <v>2</v>
+      <c r="F294" s="37">
+        <v>0</v>
       </c>
       <c r="G294" s="8">
         <v>10.245942028985507</v>
@@ -10040,7 +10034,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C295" s="11">
         <v>184.36071739130435</v>
@@ -10051,8 +10045,8 @@
       <c r="E295" s="13">
         <v>0.15</v>
       </c>
-      <c r="F295" s="37" t="s">
-        <v>2</v>
+      <c r="F295" s="37">
+        <v>0</v>
       </c>
       <c r="G295" s="8">
         <v>50.338405797101451</v>
@@ -10065,7 +10059,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C296" s="15">
         <v>213.18833333333333</v>
@@ -10090,7 +10084,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C297" s="7">
         <v>242.88932666666665</v>
@@ -10115,7 +10109,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C298" s="7">
         <v>195.76029666666665</v>
@@ -10140,7 +10134,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C299" s="21">
         <v>112.78376884122686</v>
@@ -10165,7 +10159,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C300" s="15">
         <v>221.50283333333334</v>
@@ -10190,7 +10184,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C301" s="14">
         <v>207.27364333333327</v>
@@ -10215,7 +10209,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C302" s="7">
         <v>215.11864753293989</v>
@@ -10240,7 +10234,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C303" s="15">
         <v>161.47473333333332</v>
@@ -10265,7 +10259,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C304" s="7">
         <v>167.42803216441473</v>
@@ -10290,7 +10284,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C305" s="15">
         <v>119.94746666666661</v>
@@ -10315,7 +10309,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C306" s="15">
         <v>106.48456666666667</v>
@@ -10340,7 +10334,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C307" s="7">
         <v>220.87277999999998</v>
@@ -10365,7 +10359,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C308" s="15">
         <v>226.31916666666666</v>
@@ -10390,7 +10384,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C309" s="7">
         <v>187.33779666666669</v>
@@ -10415,7 +10409,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C310" s="7">
         <v>170.38997583333332</v>
@@ -10440,7 +10434,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C311" s="15">
         <v>129.09640000000002</v>
@@ -10465,7 +10459,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C312" s="7">
         <v>211.68314953072866</v>
@@ -10490,7 +10484,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C313" s="15">
         <v>149.46526666666665</v>
@@ -10515,7 +10509,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C314" s="7">
         <v>162.87476334631444</v>
@@ -10540,7 +10534,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C315" s="15">
         <v>119.15926666666665</v>
@@ -10565,7 +10559,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C316" s="7">
         <v>159.18500719261172</v>
@@ -10590,7 +10584,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C317" s="7">
         <v>259.60476916666664</v>
@@ -10615,7 +10609,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C318" s="15">
         <v>254.53219999999999</v>
@@ -10640,7 +10634,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C319" s="7">
         <v>232.88339666666667</v>
@@ -10665,7 +10659,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C320" s="15">
         <v>161.79629999999997</v>
@@ -10690,7 +10684,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C321" s="7">
         <v>67.045619999999971</v>
@@ -10701,8 +10695,8 @@
       <c r="E321" s="10">
         <v>0.18933333333333335</v>
       </c>
-      <c r="F321" s="37" t="s">
-        <v>2</v>
+      <c r="F321" s="37">
+        <v>0</v>
       </c>
       <c r="G321" s="8">
         <v>17.174416666666652</v>
@@ -10715,7 +10709,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C322" s="11">
         <v>380.22290000000004</v>
@@ -10723,11 +10717,11 @@
       <c r="D322" s="9">
         <v>8.8866666666666667</v>
       </c>
-      <c r="E322" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F322" s="11" t="s">
-        <v>2</v>
+      <c r="E322" s="13">
+        <v>0</v>
+      </c>
+      <c r="F322" s="11">
+        <v>0</v>
       </c>
       <c r="G322" s="8">
         <v>89.223333333333329</v>
@@ -10740,7 +10734,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C323" s="7">
         <v>106.08666666666662</v>
@@ -10751,8 +10745,8 @@
       <c r="E323" s="10">
         <v>7.333333333333332E-2</v>
       </c>
-      <c r="F323" s="14" t="s">
-        <v>11</v>
+      <c r="F323" s="14">
+        <v>0</v>
       </c>
       <c r="G323" s="8">
         <v>24.231666666666662</v>
@@ -10765,7 +10759,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C324" s="7">
         <v>583.5467147545495</v>
@@ -10776,8 +10770,8 @@
       <c r="E324" s="10">
         <v>50.43266666666667</v>
       </c>
-      <c r="F324" s="14" t="s">
-        <v>2</v>
+      <c r="F324" s="14">
+        <v>0</v>
       </c>
       <c r="G324" s="8">
         <v>21.617665904998766</v>
@@ -10790,7 +10784,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C325" s="7">
         <v>292.11840529918669</v>
@@ -10801,8 +10795,8 @@
       <c r="E325" s="6">
         <v>0</v>
       </c>
-      <c r="F325" s="14" t="s">
-        <v>2</v>
+      <c r="F325" s="14">
+        <v>0</v>
       </c>
       <c r="G325" s="8">
         <v>79.38</v>
@@ -10815,7 +10809,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C326" s="11">
         <v>51.737747826086952</v>
@@ -10826,8 +10820,8 @@
       <c r="E326" s="13">
         <v>0.48666666666666664</v>
       </c>
-      <c r="F326" s="37" t="s">
-        <v>2</v>
+      <c r="F326" s="37">
+        <v>0</v>
       </c>
       <c r="G326" s="8">
         <v>12.401449275362321</v>
@@ -10840,7 +10834,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C327" s="11">
         <v>268.95982608695653</v>
@@ -10851,8 +10845,8 @@
       <c r="E327" s="13">
         <v>0</v>
       </c>
-      <c r="F327" s="37" t="s">
-        <v>2</v>
+      <c r="F327" s="37">
+        <v>0</v>
       </c>
       <c r="G327" s="8">
         <v>74.123623188405801</v>
@@ -10865,7 +10859,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C328" s="21">
         <v>285.58779243900375</v>
@@ -10876,8 +10870,8 @@
       <c r="E328" s="18">
         <v>0.10333333333333333</v>
       </c>
-      <c r="F328" s="26" t="s">
-        <v>2</v>
+      <c r="F328" s="26">
+        <v>0</v>
       </c>
       <c r="G328" s="22">
         <v>78.702749999999995</v>
@@ -10890,7 +10884,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C329" s="11">
         <v>54.169930434782621</v>
@@ -10901,8 +10895,8 @@
       <c r="E329" s="13">
         <v>0.44</v>
       </c>
-      <c r="F329" s="37" t="s">
-        <v>2</v>
+      <c r="F329" s="37">
+        <v>0</v>
       </c>
       <c r="G329" s="8">
         <v>13.009710144927533</v>
@@ -10915,7 +10909,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C330" s="7">
         <v>354.70287658909956</v>
@@ -10926,8 +10920,8 @@
       <c r="E330" s="10">
         <v>5.43</v>
       </c>
-      <c r="F330" s="14" t="s">
-        <v>2</v>
+      <c r="F330" s="14">
+        <v>0</v>
       </c>
       <c r="G330" s="8">
         <v>57.884166666666673</v>
@@ -10940,7 +10934,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C331" s="7">
         <v>61.62189837666358</v>
@@ -10951,8 +10945,8 @@
       <c r="E331" s="10">
         <v>0.21</v>
       </c>
-      <c r="F331" s="37" t="s">
-        <v>2</v>
+      <c r="F331" s="37">
+        <v>0</v>
       </c>
       <c r="G331" s="8">
         <v>15.839500000000008</v>
@@ -10965,7 +10959,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C332" s="7">
         <v>38.273869999999967</v>
@@ -10976,8 +10970,8 @@
       <c r="E332" s="10">
         <v>0.13766666666666669</v>
       </c>
-      <c r="F332" s="37" t="s">
-        <v>2</v>
+      <c r="F332" s="37">
+        <v>0</v>
       </c>
       <c r="G332" s="8">
         <v>9.7826666666666569</v>
@@ -10990,7 +10984,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C333" s="7">
         <v>344.13365128499271</v>
@@ -11001,8 +10995,8 @@
       <c r="E333" s="10">
         <v>2.1320000000000001</v>
       </c>
-      <c r="F333" s="14" t="s">
-        <v>2</v>
+      <c r="F333" s="14">
+        <v>0</v>
       </c>
       <c r="G333" s="8">
         <v>64.000416666666666</v>
@@ -11015,7 +11009,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C334" s="15">
         <v>214.83600000000001</v>
@@ -11040,7 +11034,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C335" s="15">
         <v>258.28300000000002</v>
@@ -11065,7 +11059,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C336" s="15">
         <v>209.83166666666671</v>
@@ -11090,7 +11084,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C337" s="11">
         <v>96.699831884057957</v>
@@ -11101,8 +11095,8 @@
       <c r="E337" s="13">
         <v>0.21333333333333335</v>
       </c>
-      <c r="F337" s="12" t="s">
-        <v>2</v>
+      <c r="F337" s="12">
+        <v>0</v>
       </c>
       <c r="G337" s="8">
         <v>23.232608695652171</v>
@@ -11115,7 +11109,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C338" s="15">
         <v>51.489533333333291</v>
@@ -11140,7 +11134,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C339" s="15">
         <v>51.489533333333291</v>
@@ -11165,7 +11159,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C340" s="7">
         <v>41.492711281558343</v>
@@ -11190,7 +11184,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C341" s="7">
         <v>41.492711281558343</v>
@@ -11215,22 +11209,22 @@
         <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C342" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D342" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F342" s="15">
         <v>5.63</v>
       </c>
       <c r="G342" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I342" s="9"/>
     </row>
@@ -11240,22 +11234,22 @@
         <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C343" s="15" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D343" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F343" s="15">
         <v>5.63</v>
       </c>
       <c r="G343" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I343" s="9"/>
     </row>
@@ -11265,7 +11259,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C344" s="15">
         <v>69.565600000000032</v>
@@ -11290,7 +11284,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C345" s="15">
         <v>69.565600000000032</v>
@@ -11315,7 +11309,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C346" s="11">
         <v>67.849400000000017</v>
@@ -11340,7 +11334,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C347" s="11">
         <v>67.849400000000017</v>
@@ -11365,7 +11359,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C348" s="7">
         <v>58.053150000000038</v>
@@ -11376,8 +11370,8 @@
       <c r="E348" s="10">
         <v>0.12833333333333333</v>
       </c>
-      <c r="F348" s="37" t="s">
-        <v>2</v>
+      <c r="F348" s="37">
+        <v>0</v>
       </c>
       <c r="G348" s="8">
         <v>15.255833333333337</v>
@@ -11390,7 +11384,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C349" s="7">
         <v>87.920349999999971</v>
@@ -11401,8 +11395,8 @@
       <c r="E349" s="10">
         <v>0.26500000000000001</v>
       </c>
-      <c r="F349" s="37" t="s">
-        <v>2</v>
+      <c r="F349" s="37">
+        <v>0</v>
       </c>
       <c r="G349" s="8">
         <v>22.497583333333324</v>
@@ -11415,7 +11409,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C350" s="7">
         <v>26.912299999999981</v>
@@ -11426,8 +11420,8 @@
       <c r="E350" s="10">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="F350" s="37" t="s">
-        <v>2</v>
+      <c r="F350" s="37">
+        <v>0</v>
       </c>
       <c r="G350" s="8">
         <v>6.494250000000001</v>
@@ -11440,7 +11434,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C351" s="21">
         <v>41.00970891670385</v>
@@ -11451,8 +11445,8 @@
       <c r="E351" s="18">
         <v>0.10966666666666665</v>
       </c>
-      <c r="F351" s="26" t="s">
-        <v>2</v>
+      <c r="F351" s="26">
+        <v>0</v>
       </c>
       <c r="G351" s="22">
         <v>10.627166666666664</v>
@@ -11465,7 +11459,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C352" s="15">
         <v>27.365143478260869</v>
@@ -11476,8 +11470,8 @@
       <c r="E352" s="13">
         <v>0.22</v>
       </c>
-      <c r="F352" s="12" t="s">
-        <v>2</v>
+      <c r="F352" s="12">
+        <v>0</v>
       </c>
       <c r="G352" s="8">
         <v>6.1911594202898588</v>
@@ -11490,7 +11484,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C353" s="7">
         <v>125.81163499999998</v>
@@ -11501,8 +11495,8 @@
       <c r="E353" s="6">
         <v>3.9096666666666664</v>
       </c>
-      <c r="F353" s="12" t="s">
-        <v>2</v>
+      <c r="F353" s="12">
+        <v>0</v>
       </c>
       <c r="G353" s="8">
         <v>23.059166666666663</v>
@@ -11515,7 +11509,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C354" s="11">
         <v>51.136330434782636</v>
@@ -11526,8 +11520,8 @@
       <c r="E354" s="13">
         <v>0.62666666666666659</v>
       </c>
-      <c r="F354" s="37" t="s">
-        <v>2</v>
+      <c r="F354" s="37">
+        <v>0</v>
       </c>
       <c r="G354" s="8">
         <v>11.499710144927537</v>
@@ -11540,7 +11534,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C355" s="7">
         <v>130.84031100948653</v>
@@ -11565,7 +11559,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C356" s="7">
         <v>326.86839988660813</v>
@@ -11590,7 +11584,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C357" s="21">
         <v>151.59834650321801</v>
@@ -11615,7 +11609,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C358" s="11">
         <v>45.438117391304331</v>
@@ -11626,8 +11620,8 @@
       <c r="E358" s="13">
         <v>0.10333333333333335</v>
       </c>
-      <c r="F358" s="37" t="s">
-        <v>2</v>
+      <c r="F358" s="37">
+        <v>0</v>
       </c>
       <c r="G358" s="8">
         <v>11.468405797101452</v>
@@ -11640,7 +11634,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C359" s="11">
         <v>36.649482608695607</v>
@@ -11648,11 +11642,11 @@
       <c r="D359" s="9">
         <v>0.65217391304347827</v>
       </c>
-      <c r="E359" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F359" s="37" t="s">
-        <v>2</v>
+      <c r="E359" s="13">
+        <v>0</v>
+      </c>
+      <c r="F359" s="37">
+        <v>0</v>
       </c>
       <c r="G359" s="8">
         <v>8.6978260869565194</v>
@@ -11665,7 +11659,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C360" s="7">
         <v>51.471128639280764</v>
@@ -11676,8 +11670,8 @@
       <c r="E360" s="10">
         <v>0.18566666666666665</v>
       </c>
-      <c r="F360" s="37" t="s">
-        <v>2</v>
+      <c r="F360" s="37">
+        <v>0</v>
       </c>
       <c r="G360" s="8">
         <v>12.860583333333317</v>
@@ -11690,7 +11684,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C361" s="7">
         <v>40.956007310867328</v>
@@ -11701,8 +11695,8 @@
       <c r="E361" s="10">
         <v>0.14200000000000002</v>
       </c>
-      <c r="F361" s="37" t="s">
-        <v>2</v>
+      <c r="F361" s="37">
+        <v>0</v>
       </c>
       <c r="G361" s="8">
         <v>9.5733333333333359</v>
@@ -11715,7 +11709,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C362" s="7">
         <v>45.701038780629624</v>
@@ -11726,8 +11720,8 @@
       <c r="E362" s="10">
         <v>7.5333333333333322E-2</v>
       </c>
-      <c r="F362" s="37" t="s">
-        <v>2</v>
+      <c r="F362" s="37">
+        <v>0</v>
       </c>
       <c r="G362" s="8">
         <v>11.53375</v>
@@ -11740,7 +11734,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C363" s="7">
         <v>39.336093944132394</v>
@@ -11751,8 +11745,8 @@
       <c r="E363" s="10">
         <v>0.11933333333333333</v>
       </c>
-      <c r="F363" s="37" t="s">
-        <v>2</v>
+      <c r="F363" s="37">
+        <v>0</v>
       </c>
       <c r="G363" s="8">
         <v>9.1674166666666803</v>
@@ -11765,7 +11759,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C364" s="11">
         <v>36.773765217391322</v>
@@ -11776,8 +11770,8 @@
       <c r="E364" s="13">
         <v>0.12666666666666668</v>
       </c>
-      <c r="F364" s="37" t="s">
-        <v>2</v>
+      <c r="F364" s="37">
+        <v>0</v>
       </c>
       <c r="G364" s="8">
         <v>8.9465217391304375</v>
@@ -11790,7 +11784,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C365" s="11">
         <v>32.709753623188377</v>
@@ -11801,8 +11795,8 @@
       <c r="E365" s="13">
         <v>7.3333333333333334E-2</v>
       </c>
-      <c r="F365" s="37" t="s">
-        <v>2</v>
+      <c r="F365" s="37">
+        <v>0</v>
       </c>
       <c r="G365" s="8">
         <v>7.554202898550721</v>
@@ -11815,7 +11809,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C366" s="7">
         <v>46.109628783385006</v>
@@ -11826,8 +11820,8 @@
       <c r="E366" s="10">
         <v>0.159</v>
       </c>
-      <c r="F366" s="37" t="s">
-        <v>2</v>
+      <c r="F366" s="37">
+        <v>0</v>
       </c>
       <c r="G366" s="8">
         <v>11.723000000000013</v>
@@ -11840,7 +11834,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C367" s="7">
         <v>36.196350587685913</v>
@@ -11851,8 +11845,8 @@
       <c r="E367" s="10">
         <v>0.12433333333333334</v>
       </c>
-      <c r="F367" s="37" t="s">
-        <v>2</v>
+      <c r="F367" s="37">
+        <v>0</v>
       </c>
       <c r="G367" s="8">
         <v>8.5540000000000038</v>
@@ -11865,7 +11859,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C368" s="7">
         <v>163.76366666666667</v>
@@ -11876,8 +11870,8 @@
       <c r="E368" s="6">
         <v>1.1583333333333332</v>
       </c>
-      <c r="F368" s="14" t="s">
-        <v>2</v>
+      <c r="F368" s="14">
+        <v>0</v>
       </c>
       <c r="G368" s="8">
         <v>32.522166666666671</v>
@@ -11890,7 +11884,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C369" s="7">
         <v>220.3056666666667</v>
@@ -11901,8 +11895,8 @@
       <c r="E369" s="6">
         <v>1.3376666666666666</v>
       </c>
-      <c r="F369" s="14" t="s">
-        <v>2</v>
+      <c r="F369" s="14">
+        <v>0</v>
       </c>
       <c r="G369" s="8">
         <v>45.058333333333337</v>
@@ -11915,7 +11909,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C370" s="15">
         <v>312.57259999999997</v>
@@ -11940,7 +11934,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C371" s="15">
         <v>312.57259999999997</v>
@@ -11965,7 +11959,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C372" s="7">
         <v>66.415741886543287</v>
@@ -11990,7 +11984,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C373" s="7">
         <v>66.415741886543287</v>
@@ -12015,7 +12009,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C374" s="7">
         <v>166.16030161554647</v>
@@ -12026,8 +12020,8 @@
       <c r="E374" s="10">
         <v>18.364333333333335</v>
       </c>
-      <c r="F374" s="14" t="s">
-        <v>2</v>
+      <c r="F374" s="14">
+        <v>0</v>
       </c>
       <c r="G374" s="8">
         <v>2.1945999635060494</v>
@@ -12040,7 +12034,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C375" s="7">
         <v>82.820996271993607</v>
@@ -12065,7 +12059,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C376" s="7">
         <v>82.820996271993607</v>
@@ -12090,7 +12084,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C377" s="15">
         <v>361.60799999999995</v>
@@ -12115,7 +12109,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C378" s="15">
         <v>361.60799999999995</v>
@@ -12140,22 +12134,22 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E379" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F379" s="11">
         <v>3.7543333333333333</v>
       </c>
       <c r="G379" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I379" s="9"/>
     </row>
@@ -12165,22 +12159,22 @@
         <v>379</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E380" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F380" s="11">
         <v>3.7543333333333333</v>
       </c>
       <c r="G380" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I380" s="9"/>
     </row>
@@ -12190,22 +12184,22 @@
         <v>380</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E381" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F381" s="11">
         <v>10.49</v>
       </c>
       <c r="G381" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I381" s="9"/>
     </row>
@@ -12215,22 +12209,22 @@
         <v>381</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E382" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F382" s="11">
         <v>10.49</v>
       </c>
       <c r="G382" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I382" s="9"/>
     </row>
@@ -12240,7 +12234,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C383" s="36">
         <v>496.6502999999999</v>
@@ -12265,7 +12259,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C384" s="36">
         <v>496.6502999999999</v>
@@ -12290,7 +12284,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C385" s="7">
         <v>69.621474000000021</v>
@@ -12315,7 +12309,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C386" s="7">
         <v>69.621474000000021</v>
@@ -12340,7 +12334,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C387" s="7">
         <v>92.638766252299149</v>
@@ -12351,8 +12345,8 @@
       <c r="E387" s="10">
         <v>0.52466666666666673</v>
       </c>
-      <c r="F387" s="14" t="s">
-        <v>2</v>
+      <c r="F387" s="14">
+        <v>0</v>
       </c>
       <c r="G387" s="8">
         <v>16.30224999999999</v>
@@ -12365,7 +12359,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C388" s="15">
         <v>339.14124020355331</v>
@@ -12376,8 +12370,8 @@
       <c r="E388" s="16">
         <v>0.77</v>
       </c>
-      <c r="F388" s="14" t="s">
-        <v>2</v>
+      <c r="F388" s="14">
+        <v>0</v>
       </c>
       <c r="G388" s="8">
         <v>62.004492753623182</v>
@@ -12390,7 +12384,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C389" s="21">
         <v>14.103733399311682</v>
@@ -12398,11 +12392,11 @@
       <c r="D389" s="22">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E389" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F389" s="26" t="s">
-        <v>2</v>
+      <c r="E389" s="18">
+        <v>0</v>
+      </c>
+      <c r="F389" s="26">
+        <v>0</v>
       </c>
       <c r="G389" s="22">
         <v>5.246666666666659</v>
@@ -12415,7 +12409,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C390" s="11">
         <v>22.22504347826089</v>
@@ -12426,8 +12420,8 @@
       <c r="E390" s="13">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="F390" s="37" t="s">
-        <v>2</v>
+      <c r="F390" s="37">
+        <v>0</v>
       </c>
       <c r="G390" s="8">
         <v>7.321449275362319</v>
@@ -12440,7 +12434,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C391" s="7">
         <v>31.818153430163903</v>
@@ -12451,8 +12445,8 @@
       <c r="E391" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F391" s="37" t="s">
-        <v>2</v>
+      <c r="F391" s="37">
+        <v>0</v>
       </c>
       <c r="G391" s="8">
         <v>11.084416666666677</v>
@@ -12465,7 +12459,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C392" s="7">
         <v>218.10881416666666</v>
@@ -12490,7 +12484,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C393" s="7">
         <v>245.46100666666663</v>
@@ -12515,7 +12509,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C394" s="7">
         <v>243.6585675</v>
@@ -12540,7 +12534,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C395" s="7">
         <v>227.20345083333331</v>
@@ -12565,7 +12559,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C396" s="7">
         <v>279.54358916666666</v>
@@ -12590,7 +12584,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C397" s="7">
         <v>296.48960916666658</v>
@@ -12615,7 +12609,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C398" s="7">
         <v>495.09611384365076</v>
@@ -12626,8 +12620,8 @@
       <c r="E398" s="10">
         <v>32.252933333333338</v>
       </c>
-      <c r="F398" s="14" t="s">
-        <v>2</v>
+      <c r="F398" s="14">
+        <v>0</v>
       </c>
       <c r="G398" s="8">
         <v>43.312199493153891</v>
@@ -12640,7 +12634,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C399" s="7">
         <v>62.531818366289116</v>
@@ -12651,8 +12645,8 @@
       <c r="E399" s="10">
         <v>0.246</v>
       </c>
-      <c r="F399" s="37" t="s">
-        <v>2</v>
+      <c r="F399" s="37">
+        <v>0</v>
       </c>
       <c r="G399" s="8">
         <v>16.587999999999997</v>
@@ -12665,7 +12659,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C400" s="11">
         <v>55.51520000000005</v>
@@ -12673,11 +12667,11 @@
       <c r="D400" s="9">
         <v>0.28666666666666668</v>
       </c>
-      <c r="E400" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F400" s="37" t="s">
-        <v>2</v>
+      <c r="E400" s="13">
+        <v>0</v>
+      </c>
+      <c r="F400" s="37">
+        <v>0</v>
       </c>
       <c r="G400" s="8">
         <v>15.153333333333341</v>
@@ -12690,7 +12684,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C401" s="11">
         <v>435.86478053333337</v>
@@ -12701,8 +12695,8 @@
       <c r="E401" s="9">
         <v>17.236666666666668</v>
       </c>
-      <c r="F401" s="11" t="s">
-        <v>2</v>
+      <c r="F401" s="11">
+        <v>0</v>
       </c>
       <c r="G401" s="8">
         <v>62.431653333333344</v>
@@ -12715,7 +12709,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C402" s="21">
         <v>119.53177144556008</v>
@@ -12740,7 +12734,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C403" s="11">
         <v>371.12261304347828</v>
@@ -12751,8 +12745,8 @@
       <c r="E403" s="9">
         <v>1.3033333333333335</v>
       </c>
-      <c r="F403" s="11" t="s">
-        <v>2</v>
+      <c r="F403" s="11">
+        <v>0</v>
       </c>
       <c r="G403" s="8">
         <v>77.944347826086954</v>
@@ -12765,7 +12759,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C404" s="11">
         <v>370.5671133333334</v>
@@ -12790,7 +12784,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C405" s="7">
         <v>404.28187666666668</v>
@@ -12801,8 +12795,8 @@
       <c r="E405" s="10">
         <v>40.656666666666666</v>
       </c>
-      <c r="F405" s="37" t="s">
-        <v>2</v>
+      <c r="F405" s="37">
+        <v>0</v>
       </c>
       <c r="G405" s="8">
         <v>13.945433333333337</v>
@@ -12815,7 +12809,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C406" s="7">
         <v>302.15267768782371</v>
@@ -12840,7 +12834,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="45" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C407" s="21">
         <v>209.3762544589043</v>
@@ -12851,8 +12845,8 @@
       <c r="E407" s="18">
         <v>9.8000000000000018E-2</v>
       </c>
-      <c r="F407" s="26" t="s">
-        <v>2</v>
+      <c r="F407" s="26">
+        <v>0</v>
       </c>
       <c r="G407" s="22">
         <v>57.63666666666667</v>
@@ -12865,7 +12859,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="45" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C408" s="21">
         <v>195.62747482178608</v>
@@ -12876,8 +12870,8 @@
       <c r="E408" s="18">
         <v>6.7333333333333342E-2</v>
       </c>
-      <c r="F408" s="26" t="s">
-        <v>2</v>
+      <c r="F408" s="26">
+        <v>0</v>
       </c>
       <c r="G408" s="22">
         <v>54.003583333333331</v>
@@ -12890,7 +12884,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C409" s="11">
         <v>45.340747826086911</v>
@@ -12901,8 +12895,8 @@
       <c r="E409" s="13">
         <v>0.12</v>
       </c>
-      <c r="F409" s="37" t="s">
-        <v>2</v>
+      <c r="F409" s="37">
+        <v>0</v>
       </c>
       <c r="G409" s="8">
         <v>11.554782608695643</v>
@@ -12915,7 +12909,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C410" s="7">
         <v>40.156768942296566</v>
@@ -12926,8 +12920,8 @@
       <c r="E410" s="10">
         <v>0.12433333333333334</v>
       </c>
-      <c r="F410" s="37" t="s">
-        <v>2</v>
+      <c r="F410" s="37">
+        <v>0</v>
       </c>
       <c r="G410" s="8">
         <v>10.439750000000016</v>
@@ -12940,7 +12934,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C411" s="7">
         <v>125.35825000000003</v>
@@ -12951,8 +12945,8 @@
       <c r="E411" s="10">
         <v>0.29833333333333334</v>
       </c>
-      <c r="F411" s="12" t="s">
-        <v>2</v>
+      <c r="F411" s="12">
+        <v>0</v>
       </c>
       <c r="G411" s="8">
         <v>30.09</v>
@@ -12965,7 +12959,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C412" s="11">
         <v>151.41695652173911</v>
@@ -12976,8 +12970,8 @@
       <c r="E412" s="13">
         <v>0.3</v>
       </c>
-      <c r="F412" s="12" t="s">
-        <v>2</v>
+      <c r="F412" s="12">
+        <v>0</v>
       </c>
       <c r="G412" s="8">
         <v>36.169565217391309</v>
@@ -12990,7 +12984,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C413" s="7">
         <v>405.69394166666666</v>
@@ -13001,8 +12995,8 @@
       <c r="E413" s="10">
         <v>9.1199999999999992</v>
       </c>
-      <c r="F413" s="12" t="s">
-        <v>2</v>
+      <c r="F413" s="12">
+        <v>0</v>
       </c>
       <c r="G413" s="8">
         <v>80.30416666666666</v>
@@ -13015,7 +13009,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C414" s="21">
         <v>300.0552433891495</v>
@@ -13026,8 +13020,8 @@
       <c r="E414" s="18">
         <v>11.195</v>
       </c>
-      <c r="F414" s="26" t="s">
-        <v>2</v>
+      <c r="F414" s="26">
+        <v>0</v>
       </c>
       <c r="G414" s="22">
         <v>50.251416666666664</v>
@@ -13040,7 +13034,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C415" s="7">
         <v>63.50031833879153</v>
@@ -13051,8 +13045,8 @@
       <c r="E415" s="10">
         <v>0.25600000000000001</v>
       </c>
-      <c r="F415" s="37" t="s">
-        <v>2</v>
+      <c r="F415" s="37">
+        <v>0</v>
       </c>
       <c r="G415" s="8">
         <v>16.662666666666667</v>
@@ -13065,7 +13059,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C416" s="21">
         <v>72.486738091687329</v>
@@ -13076,8 +13070,8 @@
       <c r="E416" s="18">
         <v>0.17200000000000001</v>
       </c>
-      <c r="F416" s="26" t="s">
-        <v>2</v>
+      <c r="F416" s="26">
+        <v>0</v>
       </c>
       <c r="G416" s="22">
         <v>19.352249999999991</v>
@@ -13090,7 +13084,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C417" s="7">
         <v>48.305880000000002</v>
@@ -13101,8 +13095,8 @@
       <c r="E417" s="10">
         <v>0.23399999999999999</v>
       </c>
-      <c r="F417" s="37" t="s">
-        <v>2</v>
+      <c r="F417" s="37">
+        <v>0</v>
       </c>
       <c r="G417" s="8">
         <v>12.518416666666665</v>
@@ -13115,7 +13109,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C418" s="15">
         <v>50.692182608695632</v>
@@ -13126,8 +13120,8 @@
       <c r="E418" s="16">
         <v>0.22</v>
       </c>
-      <c r="F418" s="37" t="s">
-        <v>2</v>
+      <c r="F418" s="37">
+        <v>0</v>
       </c>
       <c r="G418" s="8">
         <v>12.771594202898537</v>
@@ -13140,7 +13134,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C419" s="21">
         <v>134.22289340098695</v>
@@ -13165,7 +13159,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C420" s="11">
         <v>21.14767681159422</v>
@@ -13176,8 +13170,8 @@
       <c r="E420" s="13">
         <v>0.39333333333333337</v>
       </c>
-      <c r="F420" s="12" t="s">
-        <v>2</v>
+      <c r="F420" s="12">
+        <v>0</v>
       </c>
       <c r="G420" s="8">
         <v>3.6444927536231915</v>
@@ -13190,7 +13184,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C421" s="21">
         <v>343.55045872306823</v>
@@ -13215,7 +13209,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C422" s="7">
         <v>349.32523145536584</v>
@@ -13240,7 +13234,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C423" s="7">
         <v>725.96892684599879</v>
@@ -13265,7 +13259,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C424" s="7">
         <v>757.5404607259967</v>
@@ -13290,7 +13284,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C425" s="11">
         <v>68.439508695652137</v>
@@ -13301,8 +13295,8 @@
       <c r="E425" s="13">
         <v>2.1033333333333331</v>
       </c>
-      <c r="F425" s="37" t="s">
-        <v>2</v>
+      <c r="F425" s="37">
+        <v>0</v>
       </c>
       <c r="G425" s="8">
         <v>12.264202898550717</v>
@@ -13315,7 +13309,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C426" s="7">
         <v>38.759699999999988</v>
@@ -13326,8 +13320,8 @@
       <c r="E426" s="10">
         <v>0.17666666666666667</v>
       </c>
-      <c r="F426" s="37" t="s">
-        <v>2</v>
+      <c r="F426" s="37">
+        <v>0</v>
       </c>
       <c r="G426" s="8">
         <v>9.597499999999993</v>
@@ -13340,7 +13334,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C427" s="7">
         <v>41.967319999999987</v>
@@ -13351,8 +13345,8 @@
       <c r="E427" s="10">
         <v>0.19333333333333336</v>
       </c>
-      <c r="F427" s="37" t="s">
-        <v>2</v>
+      <c r="F427" s="37">
+        <v>0</v>
       </c>
       <c r="G427" s="8">
         <v>9.6359999999999921</v>
@@ -13365,19 +13359,19 @@
         <v>427</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C428" s="7">
         <v>596.11951695632945</v>
       </c>
-      <c r="D428" s="8" t="s">
-        <v>11</v>
+      <c r="D428" s="8">
+        <v>0</v>
       </c>
       <c r="E428" s="10">
         <v>67.434333333333342</v>
       </c>
-      <c r="F428" s="14" t="s">
-        <v>2</v>
+      <c r="F428" s="14">
+        <v>0</v>
       </c>
       <c r="G428" s="8">
         <v>0</v>
@@ -13390,19 +13384,19 @@
         <v>428</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C429" s="7">
         <v>722.52562580490098</v>
       </c>
-      <c r="D429" s="8" t="s">
-        <v>11</v>
+      <c r="D429" s="8">
+        <v>0</v>
       </c>
       <c r="E429" s="6">
         <v>81.73366666666665</v>
       </c>
-      <c r="F429" s="14" t="s">
-        <v>2</v>
+      <c r="F429" s="14">
+        <v>0</v>
       </c>
       <c r="G429" s="8">
         <v>0</v>
@@ -13415,19 +13409,19 @@
         <v>429</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C430" s="7">
         <v>594.4516933333332</v>
       </c>
-      <c r="D430" s="8" t="s">
-        <v>11</v>
+      <c r="D430" s="8">
+        <v>0</v>
       </c>
       <c r="E430" s="6">
         <v>67.245666666666651</v>
       </c>
-      <c r="F430" s="14" t="s">
-        <v>2</v>
+      <c r="F430" s="14">
+        <v>0</v>
       </c>
       <c r="G430" s="8">
         <v>0</v>
@@ -13440,19 +13434,19 @@
         <v>430</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C431" s="7">
         <v>593.13749023818968</v>
       </c>
-      <c r="D431" s="8" t="s">
-        <v>11</v>
+      <c r="D431" s="8">
+        <v>0</v>
       </c>
       <c r="E431" s="6">
         <v>67.096999999999994</v>
       </c>
-      <c r="F431" s="14" t="s">
-        <v>2</v>
+      <c r="F431" s="14">
+        <v>0</v>
       </c>
       <c r="G431" s="8">
         <v>0</v>
@@ -13465,7 +13459,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C432" s="21">
         <v>301.23588753699971</v>
@@ -13476,8 +13470,8 @@
       <c r="E432" s="18">
         <v>0.19</v>
       </c>
-      <c r="F432" s="26" t="s">
-        <v>2</v>
+      <c r="F432" s="26">
+        <v>0</v>
       </c>
       <c r="G432" s="22">
         <v>73.55348320229848</v>
@@ -13490,7 +13484,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="24" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C433" s="21">
         <v>306.63189699701849</v>
@@ -13501,8 +13495,8 @@
       <c r="E433" s="18">
         <v>8.9333333333333334E-2</v>
       </c>
-      <c r="F433" s="26" t="s">
-        <v>2</v>
+      <c r="F433" s="26">
+        <v>0</v>
       </c>
       <c r="G433" s="22">
         <v>75.05938319810231</v>
@@ -13515,7 +13509,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C434" s="21">
         <v>257.24147319380444</v>
@@ -13526,8 +13520,8 @@
       <c r="E434" s="18">
         <v>0.13733333333333334</v>
       </c>
-      <c r="F434" s="26" t="s">
-        <v>2</v>
+      <c r="F434" s="26">
+        <v>0</v>
       </c>
       <c r="G434" s="22">
         <v>70.763333333333335</v>
@@ -13540,7 +13534,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C435" s="11">
         <v>13.747236086956516</v>
@@ -13551,8 +13545,8 @@
       <c r="E435" s="13">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F435" s="12" t="s">
-        <v>2</v>
+      <c r="F435" s="12">
+        <v>0</v>
       </c>
       <c r="G435" s="8">
         <v>2.7286956521739105</v>
@@ -13565,7 +13559,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="41" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C436" s="7">
         <v>309.24266666666665</v>
@@ -13576,8 +13570,8 @@
       <c r="E436" s="6">
         <v>0</v>
       </c>
-      <c r="F436" s="37" t="s">
-        <v>2</v>
+      <c r="F436" s="37">
+        <v>0</v>
       </c>
       <c r="G436" s="8">
         <v>84.033333333333331</v>
@@ -13590,7 +13584,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="41" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C437" s="7">
         <v>296.50649123191829</v>
@@ -13601,8 +13595,8 @@
       <c r="E437" s="17">
         <v>0</v>
       </c>
-      <c r="F437" s="37" t="s">
-        <v>2</v>
+      <c r="F437" s="37">
+        <v>0</v>
       </c>
       <c r="G437" s="8">
         <v>76.61666666666666</v>
@@ -13615,7 +13609,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C438" s="11">
         <v>32.60662608695646</v>
@@ -13623,11 +13617,11 @@
       <c r="D438" s="9">
         <v>0.88405797101449279</v>
       </c>
-      <c r="E438" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F438" s="37" t="s">
-        <v>2</v>
+      <c r="E438" s="13">
+        <v>0</v>
+      </c>
+      <c r="F438" s="37">
+        <v>0</v>
       </c>
       <c r="G438" s="8">
         <v>8.1392753623188376</v>
@@ -13640,7 +13634,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C439" s="11">
         <v>29.369391304347808</v>
@@ -13648,11 +13642,11 @@
       <c r="D439" s="9">
         <v>0.67753623188405809</v>
       </c>
-      <c r="E439" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F439" s="37" t="s">
-        <v>2</v>
+      <c r="E439" s="13">
+        <v>0</v>
+      </c>
+      <c r="F439" s="37">
+        <v>0</v>
       </c>
       <c r="G439" s="8">
         <v>7.5257971014492737</v>
@@ -13665,7 +13659,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C440" s="7">
         <v>121.91021833333333</v>
@@ -13690,7 +13684,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C441" s="15">
         <v>89.130866666666648</v>
@@ -13715,7 +13709,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C442" s="21">
         <v>191.62747837583225</v>
@@ -13740,7 +13734,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C443" s="7">
         <v>57.592778474648775</v>
@@ -13751,8 +13745,8 @@
       <c r="E443" s="10">
         <v>0.13400000000000001</v>
       </c>
-      <c r="F443" s="37" t="s">
-        <v>2</v>
+      <c r="F443" s="37">
+        <v>0</v>
       </c>
       <c r="G443" s="8">
         <v>14.861999999999998</v>
@@ -13765,7 +13759,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C444" s="7">
         <v>36.871350000000064</v>
@@ -13776,8 +13770,8 @@
       <c r="E444" s="10">
         <v>0.12833333333333333</v>
       </c>
-      <c r="F444" s="37" t="s">
-        <v>2</v>
+      <c r="F444" s="37">
+        <v>0</v>
       </c>
       <c r="G444" s="8">
         <v>9.337000000000014</v>
@@ -13790,7 +13784,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C445" s="11">
         <v>361.36682387826096</v>
@@ -13798,11 +13792,11 @@
       <c r="D445" s="9">
         <v>0.59782608695652173</v>
       </c>
-      <c r="E445" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F445" s="11" t="s">
-        <v>2</v>
+      <c r="E445" s="9">
+        <v>0</v>
+      </c>
+      <c r="F445" s="11">
+        <v>0</v>
       </c>
       <c r="G445" s="8">
         <v>87.148843913043493</v>
@@ -13815,7 +13809,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C446" s="11">
         <v>353.48226811594202</v>
@@ -13826,8 +13820,8 @@
       <c r="E446" s="9">
         <v>1.9033333333333333</v>
       </c>
-      <c r="F446" s="11" t="s">
-        <v>2</v>
+      <c r="F446" s="11">
+        <v>0</v>
       </c>
       <c r="G446" s="8">
         <v>78.872898550724628</v>
@@ -13840,7 +13834,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C447" s="11">
         <v>138.16656499999999</v>
@@ -13851,8 +13845,8 @@
       <c r="E447" s="9">
         <v>0.60899999999999999</v>
       </c>
-      <c r="F447" s="11" t="s">
-        <v>2</v>
+      <c r="F447" s="11">
+        <v>0</v>
       </c>
       <c r="G447" s="8">
         <v>28.555749999999996</v>
@@ -13865,7 +13859,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C448" s="15">
         <v>97.564894202898515</v>
@@ -13876,8 +13870,8 @@
       <c r="E448" s="16">
         <v>2.3533333333333331</v>
       </c>
-      <c r="F448" s="15" t="s">
-        <v>2</v>
+      <c r="F448" s="15">
+        <v>0</v>
       </c>
       <c r="G448" s="8">
         <v>17.135072463768108</v>
@@ -13890,7 +13884,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C449" s="7">
         <v>373.42146666666667</v>
@@ -13901,8 +13895,8 @@
       <c r="E449" s="8">
         <v>0.37</v>
       </c>
-      <c r="F449" s="14" t="s">
-        <v>2</v>
+      <c r="F449" s="14">
+        <v>0</v>
       </c>
       <c r="G449" s="8">
         <v>89.336666666666673</v>
@@ -13915,7 +13909,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C450" s="11">
         <v>30.147917391304354</v>
@@ -13926,8 +13920,8 @@
       <c r="E450" s="13">
         <v>0.31</v>
       </c>
-      <c r="F450" s="37" t="s">
-        <v>2</v>
+      <c r="F450" s="37">
+        <v>0</v>
       </c>
       <c r="G450" s="8">
         <v>6.8184057971014589</v>
@@ -13940,7 +13934,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C451" s="21">
         <v>268.8199890167316</v>
@@ -13965,7 +13959,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C452" s="7">
         <v>18.107389052172486</v>
@@ -13976,8 +13970,8 @@
       <c r="E452" s="10">
         <v>0.16766666666666666</v>
       </c>
-      <c r="F452" s="12" t="s">
-        <v>2</v>
+      <c r="F452" s="12">
+        <v>0</v>
       </c>
       <c r="G452" s="8">
         <v>3.2365833333333267</v>
@@ -13990,7 +13984,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C453" s="11">
         <v>18.18662463768122</v>
@@ -14001,8 +13995,8 @@
       <c r="E453" s="13">
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="F453" s="12" t="s">
-        <v>2</v>
+      <c r="F453" s="12">
+        <v>0</v>
       </c>
       <c r="G453" s="8">
         <v>4.1471014492753762</v>
@@ -14015,7 +14009,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C454" s="7">
         <v>42.539198868195214</v>
@@ -14023,11 +14017,11 @@
       <c r="D454" s="8">
         <v>0.30833333333333335</v>
       </c>
-      <c r="E454" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F454" s="37" t="s">
-        <v>2</v>
+      <c r="E454" s="44">
+        <v>0</v>
+      </c>
+      <c r="F454" s="37">
+        <v>0</v>
       </c>
       <c r="G454" s="8">
         <v>11.528666666666659</v>
@@ -14040,7 +14034,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C455" s="21">
         <v>180.77527399341261</v>
@@ -14065,7 +14059,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C456" s="7">
         <v>620.0600197905668</v>
@@ -14076,8 +14070,8 @@
       <c r="E456" s="10">
         <v>59.359666666666669</v>
       </c>
-      <c r="F456" s="37" t="s">
-        <v>2</v>
+      <c r="F456" s="37">
+        <v>0</v>
       </c>
       <c r="G456" s="8">
         <v>18.363866163889568</v>
@@ -14090,22 +14084,22 @@
         <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C457" s="7">
         <v>884</v>
       </c>
-      <c r="D457" s="8" t="s">
-        <v>2</v>
+      <c r="D457" s="8">
+        <v>0</v>
       </c>
       <c r="E457" s="8">
         <v>100</v>
       </c>
-      <c r="F457" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G457" s="8" t="s">
-        <v>2</v>
+      <c r="F457" s="14">
+        <v>0</v>
+      </c>
+      <c r="G457" s="8">
+        <v>0</v>
       </c>
       <c r="I457" s="23"/>
     </row>
@@ -14115,22 +14109,22 @@
         <v>457</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C458" s="7">
         <v>884</v>
       </c>
-      <c r="D458" s="8" t="s">
-        <v>2</v>
+      <c r="D458" s="8">
+        <v>0</v>
       </c>
       <c r="E458" s="8">
         <v>100</v>
       </c>
-      <c r="F458" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G458" s="8" t="s">
-        <v>2</v>
+      <c r="F458" s="14">
+        <v>0</v>
+      </c>
+      <c r="G458" s="8">
+        <v>0</v>
       </c>
       <c r="I458" s="23"/>
     </row>
@@ -14140,22 +14134,22 @@
         <v>458</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C459" s="7">
         <v>884</v>
       </c>
-      <c r="D459" s="8" t="s">
-        <v>2</v>
+      <c r="D459" s="8">
+        <v>0</v>
       </c>
       <c r="E459" s="8">
         <v>100</v>
       </c>
-      <c r="F459" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G459" s="8" t="s">
-        <v>2</v>
+      <c r="F459" s="14">
+        <v>0</v>
+      </c>
+      <c r="G459" s="8">
+        <v>0</v>
       </c>
       <c r="I459" s="23"/>
     </row>
@@ -14165,22 +14159,22 @@
         <v>459</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C460" s="7">
         <v>884</v>
       </c>
-      <c r="D460" s="8" t="s">
-        <v>2</v>
+      <c r="D460" s="8">
+        <v>0</v>
       </c>
       <c r="E460" s="8">
         <v>100</v>
       </c>
-      <c r="F460" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G460" s="8" t="s">
-        <v>2</v>
+      <c r="F460" s="14">
+        <v>0</v>
+      </c>
+      <c r="G460" s="8">
+        <v>0</v>
       </c>
       <c r="I460" s="23"/>
     </row>
@@ -14190,22 +14184,22 @@
         <v>460</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C461" s="7">
         <v>884</v>
       </c>
-      <c r="D461" s="8" t="s">
-        <v>2</v>
+      <c r="D461" s="8">
+        <v>0</v>
       </c>
       <c r="E461" s="8">
         <v>100</v>
       </c>
-      <c r="F461" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G461" s="8" t="s">
-        <v>2</v>
+      <c r="F461" s="14">
+        <v>0</v>
+      </c>
+      <c r="G461" s="8">
+        <v>0</v>
       </c>
       <c r="I461" s="16"/>
     </row>
@@ -14215,22 +14209,22 @@
         <v>461</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C462" s="7">
         <v>884</v>
       </c>
-      <c r="D462" s="8" t="s">
-        <v>2</v>
+      <c r="D462" s="8">
+        <v>0</v>
       </c>
       <c r="E462" s="8">
         <v>100</v>
       </c>
-      <c r="F462" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G462" s="8" t="s">
-        <v>2</v>
+      <c r="F462" s="14">
+        <v>0</v>
+      </c>
+      <c r="G462" s="8">
+        <v>0</v>
       </c>
       <c r="I462" s="23"/>
     </row>
@@ -14240,7 +14234,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="24" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C463" s="21">
         <v>268.00677218242487</v>
@@ -14265,7 +14259,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C464" s="7">
         <v>176.89389999999997</v>
@@ -14290,7 +14284,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C465" s="7">
         <v>59.435696666666672</v>
@@ -14301,8 +14295,8 @@
       <c r="E465" s="10">
         <v>8.900000000000001E-2</v>
       </c>
-      <c r="F465" s="14" t="s">
-        <v>2</v>
+      <c r="F465" s="14">
+        <v>0</v>
       </c>
       <c r="G465" s="8">
         <v>0</v>
@@ -14315,7 +14309,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C466" s="7">
         <v>352.67334000000005</v>
@@ -14340,7 +14334,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C467" s="7">
         <v>145.70017000000001</v>
@@ -14365,7 +14359,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C468" s="15">
         <v>143.11173333333335</v>
@@ -14390,7 +14384,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C469" s="21">
         <v>240.18722400911651</v>
@@ -14415,7 +14409,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C470" s="7">
         <v>486.92708646452428</v>
@@ -14426,8 +14420,8 @@
       <c r="E470" s="10">
         <v>26.075333333333333</v>
       </c>
-      <c r="F470" s="14" t="s">
-        <v>2</v>
+      <c r="F470" s="14">
+        <v>0</v>
       </c>
       <c r="G470" s="8">
         <v>52.376166666666663</v>
@@ -14440,7 +14434,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C471" s="7">
         <v>23.199716434081346</v>
@@ -14451,8 +14445,8 @@
       <c r="E471" s="10">
         <v>0.40333333333333332</v>
       </c>
-      <c r="F471" s="12" t="s">
-        <v>2</v>
+      <c r="F471" s="12">
+        <v>0</v>
       </c>
       <c r="G471" s="8">
         <v>4.328333333333326</v>
@@ -14465,7 +14459,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C472" s="7">
         <v>29.431963333333321</v>
@@ -14476,8 +14470,8 @@
       <c r="E472" s="10">
         <v>0.45</v>
       </c>
-      <c r="F472" s="12" t="s">
-        <v>2</v>
+      <c r="F472" s="12">
+        <v>0</v>
       </c>
       <c r="G472" s="8">
         <v>5.5089999999999968</v>
@@ -14490,7 +14484,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C473" s="7">
         <v>171.21911166666669</v>
@@ -14501,8 +14495,8 @@
       <c r="E473" s="6">
         <v>4.8496666666666668</v>
       </c>
-      <c r="F473" s="14" t="s">
-        <v>2</v>
+      <c r="F473" s="14">
+        <v>0</v>
       </c>
       <c r="G473" s="8">
         <v>30.68491666666667</v>
@@ -14515,7 +14509,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C474" s="7">
         <v>343.08536666666669</v>
@@ -14526,8 +14520,8 @@
       <c r="E474" s="17">
         <v>5.6933333333333342</v>
       </c>
-      <c r="F474" s="14" t="s">
-        <v>11</v>
+      <c r="F474" s="14">
+        <v>0</v>
       </c>
       <c r="G474" s="8">
         <v>59.566666666666663</v>
@@ -14540,7 +14534,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C475" s="7">
         <v>363.07791333333336</v>
@@ -14565,7 +14559,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C476" s="7">
         <v>294.53800000000001</v>
@@ -14590,7 +14584,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C477" s="7">
         <v>308.72632333333331</v>
@@ -14601,8 +14595,8 @@
       <c r="E477" s="17">
         <v>3.58</v>
       </c>
-      <c r="F477" s="37" t="s">
-        <v>2</v>
+      <c r="F477" s="37">
+        <v>0</v>
       </c>
       <c r="G477" s="8">
         <v>56.510333333333335</v>
@@ -14615,7 +14609,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C478" s="7">
         <v>252.99402999999998</v>
@@ -14626,8 +14620,8 @@
       <c r="E478" s="6">
         <v>2.7266666666666666</v>
       </c>
-      <c r="F478" s="14" t="s">
-        <v>2</v>
+      <c r="F478" s="14">
+        <v>0</v>
       </c>
       <c r="G478" s="8">
         <v>44.118999999999993</v>
@@ -14640,7 +14634,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C479" s="7">
         <v>292.01348999999999</v>
@@ -14665,7 +14659,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C480" s="7">
         <v>253.19361833333332</v>
@@ -14676,8 +14670,8 @@
       <c r="E480" s="6">
         <v>3.6533333333333338</v>
       </c>
-      <c r="F480" s="14" t="s">
-        <v>2</v>
+      <c r="F480" s="14">
+        <v>0</v>
       </c>
       <c r="G480" s="8">
         <v>49.941499999999998</v>
@@ -14690,7 +14684,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C481" s="15">
         <v>299.8101504347826</v>
@@ -14701,8 +14695,8 @@
       <c r="E481" s="16">
         <v>3.1033333333333335</v>
       </c>
-      <c r="F481" s="15" t="s">
-        <v>2</v>
+      <c r="F481" s="15">
+        <v>0</v>
       </c>
       <c r="G481" s="8">
         <v>58.646434782608694</v>
@@ -14715,7 +14709,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C482" s="7">
         <v>310.96494000000001</v>
@@ -14740,7 +14734,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C483" s="21">
         <v>288.70207151598953</v>
@@ -14765,7 +14759,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C484" s="21">
         <v>388.37465162496756</v>
@@ -14790,7 +14784,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C485" s="21">
         <v>308.47443388737418</v>
@@ -14815,7 +14809,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C486" s="21">
         <v>422.11208003931927</v>
@@ -14840,7 +14834,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C487" s="7">
         <v>310.20251433333328</v>
@@ -14851,8 +14845,8 @@
       <c r="E487" s="6">
         <v>5.4770000000000003</v>
       </c>
-      <c r="F487" s="14" t="s">
-        <v>2</v>
+      <c r="F487" s="14">
+        <v>0</v>
       </c>
       <c r="G487" s="8">
         <v>57.379633333333324</v>
@@ -14865,7 +14859,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C488" s="7">
         <v>569.67245933333334</v>
@@ -14876,8 +14870,8 @@
       <c r="E488" s="6">
         <v>40.860333333333337</v>
       </c>
-      <c r="F488" s="14" t="s">
-        <v>2</v>
+      <c r="F488" s="14">
+        <v>0</v>
       </c>
       <c r="G488" s="8">
         <v>49.343133333333341</v>
@@ -14890,7 +14884,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="24" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C489" s="21">
         <v>503.19036583995569</v>
@@ -14901,8 +14895,8 @@
       <c r="E489" s="18">
         <v>28.048333333333336</v>
       </c>
-      <c r="F489" s="26" t="s">
-        <v>2</v>
+      <c r="F489" s="26">
+        <v>0</v>
       </c>
       <c r="G489" s="22">
         <v>54.730426574707039</v>
@@ -14915,7 +14909,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C490" s="11">
         <v>9.5336913043478191</v>
@@ -14923,11 +14917,11 @@
       <c r="D490" s="9">
         <v>0.86956521739130432</v>
       </c>
-      <c r="E490" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F490" s="12" t="s">
-        <v>2</v>
+      <c r="E490" s="13">
+        <v>0</v>
+      </c>
+      <c r="F490" s="12">
+        <v>0</v>
       </c>
       <c r="G490" s="8">
         <v>2.0371014492753532</v>
@@ -14940,7 +14934,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C491" s="7">
         <v>204.96677</v>
@@ -14951,8 +14945,8 @@
       <c r="E491" s="10">
         <v>17.971</v>
       </c>
-      <c r="F491" s="37" t="s">
-        <v>2</v>
+      <c r="F491" s="37">
+        <v>0</v>
       </c>
       <c r="G491" s="8">
         <v>12.972916666666666</v>
@@ -14965,7 +14959,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C492" s="7">
         <v>60.588590000000003</v>
@@ -14976,8 +14970,8 @@
       <c r="E492" s="10">
         <v>0.23033333333333331</v>
       </c>
-      <c r="F492" s="37" t="s">
-        <v>2</v>
+      <c r="F492" s="37">
+        <v>0</v>
       </c>
       <c r="G492" s="8">
         <v>16.074916666666663</v>
@@ -14990,7 +14984,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C493" s="11">
         <v>53.309047826086925</v>
@@ -15001,8 +14995,8 @@
       <c r="E493" s="13">
         <v>0.11</v>
       </c>
-      <c r="F493" s="37" t="s">
-        <v>2</v>
+      <c r="F493" s="37">
+        <v>0</v>
       </c>
       <c r="G493" s="8">
         <v>14.02478260869564</v>
@@ -15015,7 +15009,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C494" s="7">
         <v>163.07139793137708</v>
@@ -15040,7 +15034,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C495" s="7">
         <v>93.722433826128636</v>
@@ -15065,7 +15059,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C496" s="15">
         <v>110.87629999999999</v>
@@ -15090,7 +15084,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C497" s="7">
         <v>223.03973236930369</v>
@@ -15115,7 +15109,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C498" s="21">
         <v>283.42521443196142</v>
@@ -15140,7 +15134,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C499" s="15">
         <v>107.20556666666666</v>
@@ -15165,7 +15159,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C500" s="7">
         <v>154.270025</v>
@@ -15190,7 +15184,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C501" s="21">
         <v>141.9583228750229</v>
@@ -15215,7 +15209,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C502" s="7">
         <v>76.408908333333343</v>
@@ -15240,7 +15234,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C503" s="7">
         <v>36.327599024534216</v>
@@ -15248,11 +15242,11 @@
       <c r="D503" s="6">
         <v>0.82499999999999996</v>
       </c>
-      <c r="E503" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F503" s="37" t="s">
-        <v>2</v>
+      <c r="E503" s="44">
+        <v>0</v>
+      </c>
+      <c r="F503" s="37">
+        <v>0</v>
       </c>
       <c r="G503" s="8">
         <v>9.3210000000000051</v>
@@ -15265,7 +15259,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C504" s="11">
         <v>63.142434782608696</v>
@@ -15273,11 +15267,11 @@
       <c r="D504" s="9">
         <v>0.70652173913043481</v>
       </c>
-      <c r="E504" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F504" s="37" t="s">
-        <v>2</v>
+      <c r="E504" s="13">
+        <v>0</v>
+      </c>
+      <c r="F504" s="37">
+        <v>0</v>
       </c>
       <c r="G504" s="8">
         <v>16.880144927536232</v>
@@ -15290,7 +15284,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C505" s="11">
         <v>27.92745942028985</v>
@@ -15301,8 +15295,8 @@
       <c r="E505" s="13">
         <v>0.4366666666666667</v>
       </c>
-      <c r="F505" s="12" t="s">
-        <v>2</v>
+      <c r="F505" s="12">
+        <v>0</v>
       </c>
       <c r="G505" s="8">
         <v>5.9620289855072475</v>
@@ -15314,7 +15308,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C506" s="11">
         <v>21.285881159420292</v>
@@ -15325,8 +15319,8 @@
       <c r="E506" s="13">
         <v>0.15</v>
       </c>
-      <c r="F506" s="12" t="s">
-        <v>2</v>
+      <c r="F506" s="12">
+        <v>0</v>
       </c>
       <c r="G506" s="8">
         <v>4.8926086956521777</v>
@@ -15338,7 +15332,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C507" s="11">
         <v>23.281363768116009</v>
@@ -15349,8 +15343,8 @@
       <c r="E507" s="13">
         <v>0.1466666666666667</v>
       </c>
-      <c r="F507" s="12" t="s">
-        <v>2</v>
+      <c r="F507" s="12">
+        <v>0</v>
       </c>
       <c r="G507" s="8">
         <v>5.4668115942029107</v>
@@ -15362,7 +15356,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C508" s="7">
         <v>88.473527666866801</v>
@@ -15373,8 +15367,8 @@
       <c r="E508" s="10">
         <v>0.31900000000000001</v>
       </c>
-      <c r="F508" s="37" t="s">
-        <v>2</v>
+      <c r="F508" s="37">
+        <v>0</v>
       </c>
       <c r="G508" s="8">
         <v>22.447916666666668</v>
@@ -15386,7 +15380,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C509" s="7">
         <v>174.36990200000002</v>
@@ -15397,8 +15391,8 @@
       <c r="E509" s="10">
         <v>0.747</v>
       </c>
-      <c r="F509" s="37" t="s">
-        <v>2</v>
+      <c r="F509" s="37">
+        <v>0</v>
       </c>
       <c r="G509" s="8">
         <v>43.917633333333335</v>
@@ -15410,7 +15404,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C510" s="7">
         <v>191.55914112758637</v>
@@ -15434,7 +15428,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C511" s="15">
         <v>91.083233333333325</v>
@@ -15458,7 +15452,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C512" s="7">
         <v>152.19008833333334</v>
@@ -15482,7 +15476,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C513" s="21">
         <v>448.33426184719798</v>
@@ -15493,8 +15487,8 @@
       <c r="E513" s="18">
         <v>15.940999999999997</v>
       </c>
-      <c r="F513" s="26" t="s">
-        <v>2</v>
+      <c r="F513" s="26">
+        <v>0</v>
       </c>
       <c r="G513" s="22">
         <v>70.312583333333336</v>
@@ -15506,7 +15500,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C514" s="7">
         <v>41.415529999999968</v>
@@ -15517,8 +15511,8 @@
       <c r="E514" s="10">
         <v>0.16900000000000001</v>
       </c>
-      <c r="F514" s="37" t="s">
-        <v>2</v>
+      <c r="F514" s="37">
+        <v>0</v>
       </c>
       <c r="G514" s="8">
         <v>10.24416666666666</v>
@@ -15530,7 +15524,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C515" s="21">
         <v>19.105459502359221</v>
@@ -15541,8 +15535,8 @@
       <c r="E515" s="18">
         <v>0.12133333333333333</v>
       </c>
-      <c r="F515" s="26" t="s">
-        <v>2</v>
+      <c r="F515" s="26">
+        <v>0</v>
       </c>
       <c r="G515" s="22">
         <v>4.7585833333333305</v>
@@ -15554,7 +15548,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C516" s="7">
         <v>102.74116666666669</v>
@@ -15565,8 +15559,8 @@
       <c r="E516" s="10">
         <v>0.30333333333333329</v>
       </c>
-      <c r="F516" s="14" t="s">
-        <v>2</v>
+      <c r="F516" s="14">
+        <v>0</v>
       </c>
       <c r="G516" s="8">
         <v>23.311666666666667</v>
@@ -15578,7 +15572,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C517" s="11">
         <v>351.2267333333333</v>
@@ -15586,11 +15580,11 @@
       <c r="D517" s="9">
         <v>0.43</v>
       </c>
-      <c r="E517" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F517" s="12" t="s">
-        <v>2</v>
+      <c r="E517" s="13">
+        <v>0</v>
+      </c>
+      <c r="F517" s="12">
+        <v>0</v>
       </c>
       <c r="G517" s="8">
         <v>86.773333333333326</v>
@@ -15602,7 +15596,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C518" s="7">
         <v>164.11533659299215</v>
@@ -15626,7 +15620,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C519" s="21">
         <v>311.1690453348557</v>
@@ -15650,7 +15644,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C520" s="7">
         <v>280.08403490277129</v>
@@ -15674,7 +15668,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C521" s="7">
         <v>402.16844745083654</v>
@@ -15698,7 +15692,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C522" s="7">
         <v>255.60634206136066</v>
@@ -15722,7 +15716,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C523" s="7">
         <v>210.2346655796369</v>
@@ -15746,7 +15740,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C524" s="7">
         <v>175.62519525011379</v>
@@ -15770,7 +15764,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C525" s="7">
         <v>258.49175833333334</v>
@@ -15794,7 +15788,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C526" s="7">
         <v>262.25960666666663</v>
@@ -15818,7 +15812,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C527" s="7">
         <v>186.05574999999999</v>
@@ -15842,7 +15836,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C528" s="7">
         <v>377.41525749999994</v>
@@ -15866,7 +15860,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C529" s="15">
         <v>93.024566666666658</v>
@@ -15890,7 +15884,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="24" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C530" s="21">
         <v>127.84921266563737</v>
@@ -15914,7 +15908,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C531" s="21">
         <v>93.743280720869706</v>
@@ -15938,7 +15932,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="27" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C532" s="21">
         <v>218.53388087660073</v>
@@ -15949,8 +15943,8 @@
       <c r="E532" s="18">
         <v>12.761666666666668</v>
       </c>
-      <c r="F532" s="26" t="s">
-        <v>2</v>
+      <c r="F532" s="26">
+        <v>0</v>
       </c>
       <c r="G532" s="22">
         <v>29.569416666666662</v>
@@ -15962,7 +15956,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C533" s="7">
         <v>264.27312799999993</v>
@@ -15986,7 +15980,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C534" s="7">
         <v>264.27312799999993</v>
@@ -16010,7 +16004,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C535" s="21">
         <v>320.72181773325985</v>
@@ -16034,7 +16028,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C536" s="21">
         <v>320.72181773325985</v>
@@ -16058,7 +16052,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C537" s="21">
         <v>329.8707184208871</v>
@@ -16082,7 +16076,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C538" s="21">
         <v>329.8707184208871</v>
@@ -16106,7 +16100,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C539" s="7">
         <v>452.96375533333332</v>
@@ -16130,7 +16124,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C540" s="7">
         <v>452.96375533333332</v>
@@ -16154,7 +16148,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C541" s="7">
         <v>303.07980333333325</v>
@@ -16178,7 +16172,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C542" s="7">
         <v>303.07980333333325</v>
@@ -16202,7 +16196,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C543" s="7">
         <v>121.105954</v>
@@ -16226,7 +16220,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="24" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C544" s="21">
         <v>359.88046240505474</v>
@@ -16250,7 +16244,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C545" s="7">
         <v>256.57814866666666</v>
@@ -16274,7 +16268,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C546" s="7">
         <v>139.73177999999996</v>
@@ -16298,7 +16292,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C547" s="21">
         <v>29.939262150069077</v>
@@ -16309,8 +16303,8 @@
       <c r="E547" s="18">
         <v>0.29899999999999999</v>
       </c>
-      <c r="F547" s="26" t="s">
-        <v>2</v>
+      <c r="F547" s="26">
+        <v>0</v>
       </c>
       <c r="G547" s="22">
         <v>6.3739166666666662</v>
@@ -16322,7 +16316,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="24" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C548" s="21">
         <v>136.22887614158785</v>
@@ -16346,7 +16340,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C549" s="21">
         <v>109.49066929475465</v>
@@ -16370,7 +16364,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="24" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C550" s="21">
         <v>253.83130886964</v>
@@ -16394,7 +16388,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C551" s="21">
         <v>86.349230299591994</v>
@@ -16405,8 +16399,8 @@
       <c r="E551" s="18">
         <v>2.6720000000000002</v>
       </c>
-      <c r="F551" s="26" t="s">
-        <v>2</v>
+      <c r="F551" s="26">
+        <v>0</v>
       </c>
       <c r="G551" s="22">
         <v>6.6440833333333238</v>
@@ -16418,7 +16412,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C552" s="21">
         <v>411.34872157084942</v>
@@ -16442,7 +16436,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C553" s="11">
         <v>13.738126086956488</v>
@@ -16453,8 +16447,8 @@
       <c r="E553" s="13">
         <v>7.3333333333333348E-2</v>
       </c>
-      <c r="F553" s="12" t="s">
-        <v>2</v>
+      <c r="F553" s="12">
+        <v>0</v>
       </c>
       <c r="G553" s="8">
         <v>2.7253623188405807</v>
@@ -16466,7 +16460,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C554" s="21">
         <v>351.95812210154531</v>
@@ -16477,8 +16471,8 @@
       <c r="E554" s="18">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="F554" s="26" t="s">
-        <v>2</v>
+      <c r="F554" s="26">
+        <v>0</v>
       </c>
       <c r="G554" s="22">
         <v>90.792416666666668</v>
@@ -16490,7 +16484,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C555" s="7">
         <v>30.779399999999999</v>
@@ -16501,8 +16495,8 @@
       <c r="E555" s="6">
         <v>0</v>
       </c>
-      <c r="F555" s="14" t="s">
-        <v>2</v>
+      <c r="F555" s="14">
+        <v>0</v>
       </c>
       <c r="G555" s="8">
         <v>7.9533333333333394</v>
@@ -16514,7 +16508,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C556" s="7">
         <v>33.514200000000045</v>
@@ -16525,8 +16519,8 @@
       <c r="E556" s="6">
         <v>0</v>
       </c>
-      <c r="F556" s="14" t="s">
-        <v>2</v>
+      <c r="F556" s="14">
+        <v>0</v>
       </c>
       <c r="G556" s="8">
         <v>8.6600000000000108</v>
@@ -16538,7 +16532,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C557" s="7">
         <v>38.700000000000003</v>
@@ -16549,8 +16543,8 @@
       <c r="E557" s="6">
         <v>0</v>
       </c>
-      <c r="F557" s="14" t="s">
-        <v>2</v>
+      <c r="F557" s="14">
+        <v>0</v>
       </c>
       <c r="G557" s="8">
         <v>10</v>
@@ -16562,7 +16556,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C558" s="7">
         <v>45.627300000000027</v>
@@ -16573,8 +16567,8 @@
       <c r="E558" s="6">
         <v>0</v>
       </c>
-      <c r="F558" s="14" t="s">
-        <v>2</v>
+      <c r="F558" s="14">
+        <v>0</v>
       </c>
       <c r="G558" s="8">
         <v>11.79</v>
@@ -16586,7 +16580,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C559" s="7">
         <v>39.719100000000012</v>
@@ -16597,8 +16591,8 @@
       <c r="E559" s="6">
         <v>0</v>
       </c>
-      <c r="F559" s="14" t="s">
-        <v>2</v>
+      <c r="F559" s="14">
+        <v>0</v>
       </c>
       <c r="G559" s="8">
         <v>10.263333333333335</v>
@@ -16610,7 +16604,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C560" s="11">
         <v>17.118802898550712</v>
@@ -16621,8 +16615,8 @@
       <c r="E560" s="13">
         <v>0.14333333333333334</v>
       </c>
-      <c r="F560" s="12" t="s">
-        <v>2</v>
+      <c r="F560" s="12">
+        <v>0</v>
       </c>
       <c r="G560" s="8">
         <v>3.8598550724637692</v>
@@ -16634,7 +16628,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C561" s="21">
         <v>30.907502954324087</v>
@@ -16645,8 +16639,8 @@
       <c r="E561" s="20">
         <v>6.3666666666666663E-2</v>
       </c>
-      <c r="F561" s="26" t="s">
-        <v>2</v>
+      <c r="F561" s="26">
+        <v>0</v>
       </c>
       <c r="G561" s="22">
         <v>7.2040000000000006</v>
@@ -16658,7 +16652,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C562" s="21">
         <v>41.773525289714343</v>
@@ -16669,8 +16663,8 @@
       <c r="E562" s="20">
         <v>1.2403333333333333</v>
       </c>
-      <c r="F562" s="26" t="s">
-        <v>2</v>
+      <c r="F562" s="26">
+        <v>0</v>
       </c>
       <c r="G562" s="22">
         <v>7.561583333333334</v>
@@ -16682,7 +16676,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C563" s="7">
         <v>55.739000000000011</v>
@@ -16690,11 +16684,11 @@
       <c r="D563" s="8">
         <v>0.40416666666666667</v>
       </c>
-      <c r="E563" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F563" s="37" t="s">
-        <v>2</v>
+      <c r="E563" s="44">
+        <v>0</v>
+      </c>
+      <c r="F563" s="37">
+        <v>0</v>
       </c>
       <c r="G563" s="8">
         <v>15.105833333333335</v>
@@ -16706,7 +16700,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C564" s="21">
         <v>13.133256607294062</v>
@@ -16717,8 +16711,8 @@
       <c r="E564" s="20">
         <v>0.10733333333333334</v>
       </c>
-      <c r="F564" s="26" t="s">
-        <v>2</v>
+      <c r="F564" s="26">
+        <v>0</v>
       </c>
       <c r="G564" s="22">
         <v>2.2196666666666607</v>
@@ -16730,22 +16724,22 @@
         <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="C565" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D565" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E565" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F565" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G565" s="8" t="s">
-        <v>2</v>
+        <v>515</v>
+      </c>
+      <c r="C565" s="14">
+        <v>0</v>
+      </c>
+      <c r="D565" s="8">
+        <v>0</v>
+      </c>
+      <c r="E565" s="8">
+        <v>0</v>
+      </c>
+      <c r="F565" s="14">
+        <v>0</v>
+      </c>
+      <c r="G565" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
@@ -16754,22 +16748,22 @@
         <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="C566" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D566" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E566" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F566" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G566" s="8" t="s">
-        <v>2</v>
+        <v>516</v>
+      </c>
+      <c r="C566" s="14">
+        <v>0</v>
+      </c>
+      <c r="D566" s="8">
+        <v>0</v>
+      </c>
+      <c r="E566" s="8">
+        <v>0</v>
+      </c>
+      <c r="F566" s="14">
+        <v>0</v>
+      </c>
+      <c r="G566" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
@@ -16778,7 +16772,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="30" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C567" s="21">
         <v>96.103588398456552</v>
@@ -16802,7 +16796,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C568" s="21">
         <v>35.408104298472409</v>
@@ -16813,8 +16807,8 @@
       <c r="E568" s="20">
         <v>0.3116666666666667</v>
       </c>
-      <c r="F568" s="26" t="s">
-        <v>2</v>
+      <c r="F568" s="26">
+        <v>0</v>
       </c>
       <c r="G568" s="22">
         <v>7.0890833333333347</v>
@@ -16826,7 +16820,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="24" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C569" s="21">
         <v>397.8425065349341</v>
@@ -16850,7 +16844,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C570" s="21">
         <v>228.73177513531843</v>
@@ -16874,7 +16868,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C571" s="21">
         <v>169.78157991055645</v>
@@ -16898,7 +16892,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C572" s="21">
         <v>242.7065694870949</v>
@@ -16922,7 +16916,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="24" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C573" s="21">
         <v>147.86459613402681</v>
@@ -16946,7 +16940,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C574" s="11">
         <v>33.424111594202884</v>
@@ -16957,8 +16951,8 @@
       <c r="E574" s="9">
         <v>0.61</v>
       </c>
-      <c r="F574" s="12" t="s">
-        <v>2</v>
+      <c r="F574" s="12">
+        <v>0</v>
       </c>
       <c r="G574" s="8">
         <v>5.7060869565217347</v>
@@ -16970,7 +16964,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="29" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C575" s="21">
         <v>122.98185821243132</v>
@@ -16994,7 +16988,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C576" s="7">
         <v>164.3507883333333</v>
@@ -17018,7 +17012,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C577" s="7">
         <v>284.98100487124918</v>
@@ -17042,7 +17036,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C578" s="7">
         <v>257.04070000000002</v>
@@ -17066,7 +17060,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C579" s="15">
         <v>113.90036666666666</v>
@@ -17090,7 +17084,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C580" s="11">
         <v>56.533772463768145</v>
@@ -17101,8 +17095,8 @@
       <c r="E580" s="13">
         <v>0.35333333333333333</v>
       </c>
-      <c r="F580" s="12" t="s">
-        <v>2</v>
+      <c r="F580" s="12">
+        <v>0</v>
       </c>
       <c r="G580" s="8">
         <v>12.669710144927544</v>
@@ -17114,7 +17108,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C581" s="7">
         <v>30.397934166666644</v>
@@ -17125,8 +17119,8 @@
       <c r="E581" s="6">
         <v>0.74266666666666659</v>
       </c>
-      <c r="F581" s="12" t="s">
-        <v>2</v>
+      <c r="F581" s="12">
+        <v>0</v>
       </c>
       <c r="G581" s="8">
         <v>4.9467499999999989</v>
@@ -17138,7 +17132,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C582" s="7">
         <v>60.927749875386588</v>
@@ -17149,8 +17143,8 @@
       <c r="E582" s="10">
         <v>0.32666666666666666</v>
       </c>
-      <c r="F582" s="14" t="s">
-        <v>2</v>
+      <c r="F582" s="14">
+        <v>0</v>
       </c>
       <c r="G582" s="8">
         <v>11.647500000000001</v>
@@ -17162,7 +17156,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C583" s="7">
         <v>39.104855275350758</v>
@@ -17173,8 +17167,8 @@
       <c r="E583" s="10">
         <v>1.6060000000000001</v>
       </c>
-      <c r="F583" s="14" t="s">
-        <v>2</v>
+      <c r="F583" s="14">
+        <v>0</v>
       </c>
       <c r="G583" s="8">
         <v>4.2752633333333421</v>
@@ -17186,7 +17180,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C584" s="7">
         <v>458.89572943786771</v>
@@ -17197,8 +17191,8 @@
       <c r="E584" s="10">
         <v>26.180999999999997</v>
       </c>
-      <c r="F584" s="14" t="s">
-        <v>2</v>
+      <c r="F584" s="14">
+        <v>0</v>
       </c>
       <c r="G584" s="8">
         <v>28.482833333333335</v>
@@ -17210,7 +17204,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C585" s="7">
         <v>403.95584581039901</v>
@@ -17221,8 +17215,8 @@
       <c r="E585" s="10">
         <v>14.633333333333333</v>
       </c>
-      <c r="F585" s="14" t="s">
-        <v>2</v>
+      <c r="F585" s="14">
+        <v>0</v>
       </c>
       <c r="G585" s="8">
         <v>38.439899759292608</v>
@@ -17234,7 +17228,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C586" s="7">
         <v>64.48509407389021</v>
@@ -17245,8 +17239,8 @@
       <c r="E586" s="10">
         <v>3.9533333333333331</v>
       </c>
-      <c r="F586" s="14" t="s">
-        <v>2</v>
+      <c r="F586" s="14">
+        <v>0</v>
       </c>
       <c r="G586" s="8">
         <v>2.1268233333333328</v>
@@ -17258,7 +17252,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="29" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C587" s="21">
         <v>57.453476688480578</v>
@@ -17269,8 +17263,8 @@
       <c r="E587" s="20">
         <v>1.208</v>
       </c>
-      <c r="F587" s="26" t="s">
-        <v>2</v>
+      <c r="F587" s="26">
+        <v>0</v>
       </c>
       <c r="G587" s="22">
         <v>10.581003360112511</v>
@@ -17282,7 +17276,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="29" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C588" s="21">
         <v>46.889177151203157</v>
@@ -17306,7 +17300,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C589" s="7">
         <v>34.208918333333315</v>
@@ -17317,8 +17311,8 @@
       <c r="E589" s="10">
         <v>0.92666666666666675</v>
       </c>
-      <c r="F589" s="12" t="s">
-        <v>2</v>
+      <c r="F589" s="12">
+        <v>0</v>
       </c>
       <c r="G589" s="8">
         <v>5.4304999999999906</v>
@@ -17330,7 +17324,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C590" s="7">
         <v>275.69564269441366</v>
@@ -17341,8 +17335,8 @@
       <c r="E590" s="10">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F590" s="37" t="s">
-        <v>2</v>
+      <c r="F590" s="37">
+        <v>0</v>
       </c>
       <c r="G590" s="8">
         <v>72.531750000000002</v>
@@ -17354,7 +17348,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C591" s="11">
         <v>37.830599999999947</v>
@@ -17365,8 +17359,8 @@
       <c r="E591" s="13">
         <v>7.3333333333333348E-2</v>
       </c>
-      <c r="F591" s="37" t="s">
-        <v>2</v>
+      <c r="F591" s="37">
+        <v>0</v>
       </c>
       <c r="G591" s="8">
         <v>9.6099999999999905</v>
@@ -17378,7 +17372,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C592" s="11">
         <v>36.108799999999988</v>
@@ -17386,11 +17380,11 @@
       <c r="D592" s="9">
         <v>0.52173913043478259</v>
       </c>
-      <c r="E592" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F592" s="37" t="s">
-        <v>2</v>
+      <c r="E592" s="13">
+        <v>0</v>
+      </c>
+      <c r="F592" s="37">
+        <v>0</v>
       </c>
       <c r="G592" s="8">
         <v>8.8000000000000007</v>
@@ -17402,7 +17396,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="29" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C593" s="21">
         <v>347.82655625782411</v>
@@ -17426,7 +17420,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C594" s="11">
         <v>21.33</v>
@@ -17437,8 +17431,8 @@
       <c r="E594" s="13">
         <v>0.26333333333333336</v>
       </c>
-      <c r="F594" s="14" t="s">
-        <v>2</v>
+      <c r="F594" s="14">
+        <v>0</v>
       </c>
       <c r="G594" s="8">
         <v>2.0733333333333377</v>
@@ -17450,7 +17444,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C595" s="11">
         <v>15.335156521739158</v>
@@ -17461,8 +17455,8 @@
       <c r="E595" s="13">
         <v>0.17333333333333334</v>
       </c>
-      <c r="F595" s="12" t="s">
-        <v>2</v>
+      <c r="F595" s="12">
+        <v>0</v>
       </c>
       <c r="G595" s="8">
         <v>3.1388405797101462</v>
@@ -17474,7 +17468,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C596" s="11">
         <v>60.933433652173882</v>
@@ -17485,8 +17479,8 @@
       <c r="E596" s="13">
         <v>0.19</v>
       </c>
-      <c r="F596" s="12" t="s">
-        <v>2</v>
+      <c r="F596" s="12">
+        <v>0</v>
       </c>
       <c r="G596" s="8">
         <v>14.95861739130434</v>
@@ -17498,7 +17492,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C597" s="7">
         <v>38.446549460490566</v>
@@ -17509,8 +17503,8 @@
       <c r="E597" s="6">
         <v>0.90333333333333332</v>
       </c>
-      <c r="F597" s="14" t="s">
-        <v>2</v>
+      <c r="F597" s="14">
+        <v>0</v>
       </c>
       <c r="G597" s="8">
         <v>7.7116666666666784</v>
@@ -17522,7 +17516,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C598" s="11">
         <v>27.93687971014494</v>
@@ -17530,11 +17524,11 @@
       <c r="D598" s="9">
         <v>1.36231884057971</v>
       </c>
-      <c r="E598" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F598" s="12" t="s">
-        <v>2</v>
+      <c r="E598" s="13">
+        <v>0</v>
+      </c>
+      <c r="F598" s="12">
+        <v>0</v>
       </c>
       <c r="G598" s="8">
         <v>6.8943478260869533</v>
@@ -17546,7 +17540,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C599" s="7">
         <v>20.546909166666637</v>
@@ -17554,11 +17548,11 @@
       <c r="D599" s="6">
         <v>0.81041666666666679</v>
       </c>
-      <c r="E599" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F599" s="12" t="s">
-        <v>2</v>
+      <c r="E599" s="44">
+        <v>0</v>
+      </c>
+      <c r="F599" s="12">
+        <v>0</v>
       </c>
       <c r="G599" s="8">
         <v>5.1179166666666616</v>
@@ -17570,7 +17564,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C600" s="7">
         <v>377.42228299999999</v>
@@ -17581,8 +17575,8 @@
       <c r="E600" s="6">
         <v>3.3009999999999997</v>
       </c>
-      <c r="F600" s="14" t="s">
-        <v>2</v>
+      <c r="F600" s="14">
+        <v>0</v>
       </c>
       <c r="G600" s="8">
         <v>74.555899999999994</v>
@@ -17594,7 +17588,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C601" s="7">
         <v>592.53117499999985</v>
@@ -17618,7 +17612,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C602" s="7">
         <v>696.56400666666661</v>
@@ -17642,7 +17636,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C603" s="7">
         <v>381.27817396012944</v>
@@ -17653,8 +17647,8 @@
       <c r="E603" s="6">
         <v>10.341999999999999</v>
       </c>
-      <c r="F603" s="12" t="s">
-        <v>2</v>
+      <c r="F603" s="12">
+        <v>0</v>
       </c>
       <c r="G603" s="8">
         <v>43.786333333333324</v>
@@ -17666,7 +17660,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C604" s="7">
         <v>120.64258534487091</v>
@@ -17677,8 +17671,8 @@
       <c r="E604" s="6">
         <v>3.7840000000000003</v>
       </c>
-      <c r="F604" s="12" t="s">
-        <v>2</v>
+      <c r="F604" s="12">
+        <v>0</v>
       </c>
       <c r="G604" s="8">
         <v>12.38933333333334</v>
@@ -17690,7 +17684,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C605" s="21">
         <v>262.01519507239266</v>
@@ -17701,8 +17695,8 @@
       <c r="E605" s="20">
         <v>19.076666666666668</v>
       </c>
-      <c r="F605" s="26" t="s">
-        <v>2</v>
+      <c r="F605" s="26">
+        <v>0</v>
       </c>
       <c r="G605" s="22">
         <v>26.474583333333332</v>
@@ -17714,7 +17708,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C606" s="7">
         <v>87.686483549277</v>
@@ -17738,7 +17732,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C607" s="21">
         <v>27.183798402726602</v>
@@ -17749,8 +17743,8 @@
       <c r="E607" s="20">
         <v>0.28366666666666668</v>
       </c>
-      <c r="F607" s="26" t="s">
-        <v>2</v>
+      <c r="F607" s="26">
+        <v>0</v>
       </c>
       <c r="G607" s="22">
         <v>4.7377499999999877</v>
@@ -17762,7 +17756,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C608" s="7">
         <v>37.016689999999976</v>
@@ -17770,11 +17764,11 @@
       <c r="D608" s="6">
         <v>0.84166666666666679</v>
       </c>
-      <c r="E608" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F608" s="37" t="s">
-        <v>2</v>
+      <c r="E608" s="44">
+        <v>0</v>
+      </c>
+      <c r="F608" s="37">
+        <v>0</v>
       </c>
       <c r="G608" s="8">
         <v>9.3953333333333333</v>
@@ -17786,7 +17780,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C609" s="7">
         <v>33.943290000000005</v>
@@ -17797,8 +17791,8 @@
       <c r="E609" s="10">
         <v>7.0333333333333345E-2</v>
       </c>
-      <c r="F609" s="37" t="s">
-        <v>2</v>
+      <c r="F609" s="37">
+        <v>0</v>
       </c>
       <c r="G609" s="8">
         <v>8.7868333333333304</v>
@@ -17810,7 +17804,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C610" s="11">
         <v>52.873100000000065</v>
@@ -17821,8 +17815,8 @@
       <c r="E610" s="13">
         <v>0.20333333333333334</v>
       </c>
-      <c r="F610" s="37" t="s">
-        <v>2</v>
+      <c r="F610" s="37">
+        <v>0</v>
       </c>
       <c r="G610" s="8">
         <v>13.573333333333345</v>
@@ -17834,7 +17828,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C611" s="7">
         <v>49.061289999999964</v>
@@ -17845,8 +17839,8 @@
       <c r="E611" s="10">
         <v>0.157</v>
       </c>
-      <c r="F611" s="37" t="s">
-        <v>2</v>
+      <c r="F611" s="37">
+        <v>0</v>
       </c>
       <c r="G611" s="8">
         <v>12.69533333333333</v>
@@ -17858,19 +17852,19 @@
         <v>611</v>
       </c>
       <c r="B612" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C612" s="7">
         <v>57.655359999999995</v>
       </c>
-      <c r="D612" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E612" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F612" s="37" t="s">
-        <v>2</v>
+      <c r="D612" s="8">
+        <v>0</v>
+      </c>
+      <c r="E612" s="8">
+        <v>0</v>
+      </c>
+      <c r="F612" s="37">
+        <v>0</v>
       </c>
       <c r="G612" s="8">
         <v>14.708000000000002</v>
@@ -17882,7 +17876,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="29" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C613" s="21">
         <v>144.89697968479001</v>
@@ -17906,7 +17900,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C614" s="11">
         <v>24.898357971014487</v>
@@ -17917,8 +17911,8 @@
       <c r="E614" s="13">
         <v>0.17333333333333334</v>
       </c>
-      <c r="F614" s="12" t="s">
-        <v>2</v>
+      <c r="F614" s="12">
+        <v>0</v>
       </c>
       <c r="G614" s="8">
         <v>5.3471014492753577</v>
@@ -17930,7 +17924,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="29" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C615" s="21">
         <v>254.89328572415508</v>
@@ -17954,7 +17948,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="29" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C616" s="21">
         <v>306.94678645131984</v>
@@ -17978,7 +17972,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="29" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C617" s="21">
         <v>112.80204125340781</v>
@@ -17989,8 +17983,8 @@
       <c r="E617" s="20">
         <v>2.6069999999999998</v>
       </c>
-      <c r="F617" s="26" t="s">
-        <v>2</v>
+      <c r="F617" s="26">
+        <v>0</v>
       </c>
       <c r="G617" s="22">
         <v>18.251333333333335</v>
